--- a/excel/2992024.xlsx
+++ b/excel/2992024.xlsx
@@ -15,9 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="50">
     <font>
       <name val="Arial"/>
@@ -1274,10 +1272,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -1291,10 +1289,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,8 +1307,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1318,8 +1316,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,7 +1367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1993,8 +1991,8 @@
   </sheetPr>
   <dimension ref="A2:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2056,7 +2054,7 @@
       <c r="Z3" s="93" t="n"/>
       <c r="AA3" s="93" t="n"/>
       <c r="AB3" s="93" t="n"/>
-      <c r="AC3" s="88" t="n"/>
+      <c r="AC3" s="80" t="n"/>
     </row>
     <row r="4" ht="27.6" customHeight="1" s="75">
       <c r="AC4" s="24" t="n"/>
@@ -2136,9 +2134,9 @@
           <t>Nom :</t>
         </is>
       </c>
-      <c r="B6" s="101" t="inlineStr">
-        <is>
-          <t>Abacha</t>
+      <c r="B6" s="96" t="inlineStr">
+        <is>
+          <t>BLAL</t>
         </is>
       </c>
       <c r="C6" s="71" t="n"/>
@@ -2158,19 +2156,17 @@
       <c r="S6" s="78" t="n"/>
       <c r="T6" s="78" t="n"/>
       <c r="U6" s="117" t="n">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="V6" s="77" t="n"/>
       <c r="W6" s="77" t="n"/>
-      <c r="X6" s="80" t="n"/>
+      <c r="X6" s="89" t="n"/>
       <c r="AB6" s="109" t="inlineStr">
         <is>
           <t>Date Recrut.</t>
         </is>
       </c>
-      <c r="AG6" s="125" t="n">
-        <v>45327</v>
-      </c>
+      <c r="AG6" s="125" t="n"/>
       <c r="AH6" s="71" t="n"/>
       <c r="AI6" s="71" t="n"/>
       <c r="AJ6" s="97" t="n"/>
@@ -2182,9 +2178,9 @@
           <t>Prenom</t>
         </is>
       </c>
-      <c r="B7" s="101" t="inlineStr">
-        <is>
-          <t>Ala Eddine Salah</t>
+      <c r="B7" s="96" t="inlineStr">
+        <is>
+          <t>Mustapha</t>
         </is>
       </c>
       <c r="C7" s="71" t="n"/>
@@ -2209,7 +2205,7 @@
       </c>
       <c r="B8" s="128" t="inlineStr">
         <is>
-          <t>Operateur Produit</t>
+          <t>Operateur produit</t>
         </is>
       </c>
       <c r="C8" s="71" t="n"/>
@@ -2226,21 +2222,19 @@
       <c r="N8" s="97" t="n"/>
       <c r="P8" s="81" t="n"/>
       <c r="R8" s="82" t="n"/>
-      <c r="S8" s="96" t="n"/>
+      <c r="S8" s="101" t="n"/>
       <c r="T8" s="97" t="n"/>
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="81" t="n"/>
       <c r="W8" s="82" t="n"/>
-      <c r="X8" s="96" t="n"/>
+      <c r="X8" s="101" t="n"/>
       <c r="Y8" s="97" t="n"/>
       <c r="AB8" s="78" t="inlineStr">
         <is>
           <t>Date Detach.</t>
         </is>
       </c>
-      <c r="AG8" s="103" t="n">
-        <v>45339</v>
-      </c>
+      <c r="AG8" s="103" t="n"/>
       <c r="AH8" s="99" t="n"/>
       <c r="AI8" s="99" t="n"/>
       <c r="AJ8" s="100" t="n"/>
@@ -2253,9 +2247,7 @@
         </is>
       </c>
       <c r="AF9" s="82" t="n"/>
-      <c r="AG9" s="122" t="n">
-        <v>45335</v>
-      </c>
+      <c r="AG9" s="122" t="n"/>
       <c r="AH9" s="71" t="n"/>
       <c r="AI9" s="71" t="n"/>
       <c r="AJ9" s="71" t="n"/>
@@ -2297,11 +2289,7 @@
           <t>Sit. Fam.</t>
         </is>
       </c>
-      <c r="AG10" s="114" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AG10" s="114" t="n"/>
       <c r="AH10" s="115" t="n"/>
       <c r="AI10" s="115" t="n"/>
       <c r="AJ10" s="116" t="n"/>
@@ -2472,12 +2460,12 @@
           <t>Cr</t>
         </is>
       </c>
-      <c r="AT13" s="79" t="inlineStr">
+      <c r="AT13" s="88" t="inlineStr">
         <is>
           <t>Observ.</t>
         </is>
       </c>
-      <c r="AU13" s="80" t="n"/>
+      <c r="AU13" s="89" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="75">
       <c r="A14" s="6" t="inlineStr">
@@ -2485,7 +2473,11 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="C14" s="7" t="n"/>
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
@@ -2579,51 +2571,59 @@
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr">
+      <c r="H15" s="7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J15" s="8" t="inlineStr">
+      <c r="I15" s="7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="L15" s="8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="M15" s="8" t="n"/>
       <c r="N15" s="8" t="n"/>
       <c r="O15" s="10" t="n"/>
@@ -3441,36 +3441,156 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
-      <c r="H24" s="8" t="n"/>
-      <c r="I24" s="8" t="n"/>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
-      <c r="Q24" s="8" t="n"/>
-      <c r="R24" s="8" t="n"/>
-      <c r="S24" s="8" t="n"/>
-      <c r="T24" s="8" t="n"/>
-      <c r="U24" s="8" t="n"/>
-      <c r="V24" s="8" t="n"/>
-      <c r="W24" s="8" t="n"/>
-      <c r="X24" s="8" t="n"/>
-      <c r="Y24" s="8" t="n"/>
-      <c r="Z24" s="8" t="n"/>
-      <c r="AA24" s="8" t="n"/>
-      <c r="AB24" s="8" t="n"/>
-      <c r="AC24" s="8" t="n"/>
-      <c r="AD24" s="8" t="n"/>
-      <c r="AE24" s="8" t="n"/>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="N24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Q24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="R24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="U24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="W24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="X24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="Y24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Z24" s="8" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="AA24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AB24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AC24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AD24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE24" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="AF24" s="29" t="n"/>
       <c r="AG24" s="48">
         <f>COUNTIF($B24:$AF24,AG$13)</f>
@@ -3703,7 +3823,7 @@
         <f>AG26+AI26-AH26</f>
         <v/>
       </c>
-      <c r="AU26" s="88" t="n"/>
+      <c r="AU26" s="80" t="n"/>
     </row>
     <row r="27" ht="13.5" customHeight="1" s="75">
       <c r="A27" s="126" t="inlineStr">
@@ -3729,7 +3849,7 @@
       <c r="G28" s="93" t="n"/>
       <c r="H28" s="93" t="n"/>
       <c r="I28" s="93" t="n"/>
-      <c r="J28" s="88" t="n"/>
+      <c r="J28" s="80" t="n"/>
       <c r="M28" s="123" t="n"/>
       <c r="N28" s="71" t="n"/>
       <c r="O28" s="71" t="n"/>
@@ -3826,7 +3946,11 @@
       <c r="V30" s="70" t="n"/>
       <c r="W30" s="71" t="n"/>
       <c r="X30" s="71" t="n"/>
-      <c r="Y30" s="106" t="n"/>
+      <c r="Y30" s="106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  PRISE  DE FONCTION </t>
+        </is>
+      </c>
       <c r="Z30" s="71" t="n"/>
       <c r="AA30" s="71" t="n"/>
       <c r="AB30" s="71" t="n"/>
@@ -4015,17 +4139,17 @@
       <c r="AU34" s="73" t="n"/>
     </row>
     <row r="35" ht="19.5" customHeight="1" s="75">
-      <c r="H35" s="89">
+      <c r="H35" s="79">
         <f>H34+AG26+AI26-AH26</f>
         <v/>
       </c>
-      <c r="I35" s="88" t="n"/>
+      <c r="I35" s="80" t="n"/>
       <c r="J35" s="90" t="n"/>
       <c r="K35" s="90" t="n"/>
       <c r="L35" s="90" t="n"/>
       <c r="R35" s="22" t="n"/>
       <c r="S35" s="87" t="n"/>
-      <c r="T35" s="88" t="n"/>
+      <c r="T35" s="80" t="n"/>
       <c r="V35" s="133" t="n"/>
       <c r="W35" s="111" t="n"/>
       <c r="X35" s="111" t="n"/>
@@ -4096,7 +4220,7 @@
     </row>
     <row r="38" ht="13.5" customHeight="1" s="75">
       <c r="S38" s="87" t="n"/>
-      <c r="T38" s="88" t="n"/>
+      <c r="T38" s="80" t="n"/>
     </row>
     <row r="39" ht="12.75" customHeight="1" s="75"/>
     <row r="40" ht="12.75" customHeight="1" s="75"/>
@@ -5074,10 +5198,11 @@
     <mergeCell ref="S34:T35"/>
     <mergeCell ref="AT16:AU16"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="B34:F35"/>
+    <mergeCell ref="V28:X28"/>
     <mergeCell ref="D27:J28"/>
     <mergeCell ref="S37:T38"/>
     <mergeCell ref="V31:X31"/>
+    <mergeCell ref="B34:F35"/>
     <mergeCell ref="Y26:AD26"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="AI4:AN4"/>
@@ -5085,8 +5210,8 @@
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="N37:Q38"/>
+    <mergeCell ref="B6:N6"/>
     <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="B6:N6"/>
     <mergeCell ref="AT18:AU18"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="H34:I34"/>
@@ -5106,13 +5231,12 @@
     <mergeCell ref="AG10:AJ10"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="Y29:AU29"/>
-    <mergeCell ref="V28:X28"/>
     <mergeCell ref="D30:R30"/>
     <mergeCell ref="AG9:AM9"/>
     <mergeCell ref="M28:T28"/>
     <mergeCell ref="Y31:AU31"/>
+    <mergeCell ref="AT19:AU19"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="AT19:AU19"/>
     <mergeCell ref="AT15:AU15"/>
     <mergeCell ref="Y34:AU34"/>
     <mergeCell ref="AG6:AJ6"/>
@@ -5151,7 +5275,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:AF14 B15:E23 B24:AF25 F15:F18 F20:F23 G15:N23 O16:O23 P15:U23 V15:V18 V20:V23 W15:Z23 AA16:AA23 AB15:AF23">
+  <conditionalFormatting sqref="B14:AF14 B15:N15 B16:E25 F16:F18 F20:F25 G16:O25 P15:U25 V15:V18 V20:V25 W15:Z25 AA16:AA25 AB15:AF25">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"T"</formula>
     </cfRule>

--- a/excel/2992024.xlsx
+++ b/excel/2992024.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="50">
     <font>
       <name val="Arial"/>
@@ -1058,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1261,6 +1263,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1269,17 +1278,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,6 +1291,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,14 +1302,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1316,17 +1321,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1345,11 +1347,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -1376,13 +1378,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1395,16 +1397,19 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1991,91 +1996,91 @@
   </sheetPr>
   <dimension ref="A2:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31:AU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="13.88671875" customWidth="1" style="75" min="1" max="1"/>
-    <col width="3" customWidth="1" style="75" min="2" max="32"/>
-    <col width="4.77734375" customWidth="1" style="75" min="33" max="33"/>
-    <col width="5.109375" customWidth="1" style="75" min="34" max="34"/>
-    <col width="4.21875" customWidth="1" style="75" min="35" max="35"/>
-    <col width="3.6640625" customWidth="1" style="75" min="36" max="36"/>
-    <col width="3" customWidth="1" style="75" min="37" max="37"/>
-    <col width="4.6640625" customWidth="1" style="75" min="38" max="38"/>
-    <col width="3" customWidth="1" style="75" min="39" max="39"/>
-    <col width="3.33203125" customWidth="1" style="75" min="40" max="40"/>
-    <col width="3.109375" customWidth="1" style="75" min="41" max="41"/>
-    <col width="3" customWidth="1" style="75" min="42" max="45"/>
-    <col width="3.77734375" customWidth="1" style="75" min="46" max="46"/>
-    <col width="6" customWidth="1" style="75" min="47" max="47"/>
+    <col width="13.88671875" customWidth="1" style="78" min="1" max="1"/>
+    <col width="3" customWidth="1" style="78" min="2" max="32"/>
+    <col width="4.77734375" customWidth="1" style="78" min="33" max="33"/>
+    <col width="5.109375" customWidth="1" style="78" min="34" max="34"/>
+    <col width="4.21875" customWidth="1" style="78" min="35" max="35"/>
+    <col width="3.6640625" customWidth="1" style="78" min="36" max="36"/>
+    <col width="3" customWidth="1" style="78" min="37" max="37"/>
+    <col width="4.6640625" customWidth="1" style="78" min="38" max="38"/>
+    <col width="3" customWidth="1" style="78" min="39" max="39"/>
+    <col width="3.33203125" customWidth="1" style="78" min="40" max="40"/>
+    <col width="3.109375" customWidth="1" style="78" min="41" max="41"/>
+    <col width="3" customWidth="1" style="78" min="42" max="45"/>
+    <col width="3.77734375" customWidth="1" style="78" min="46" max="46"/>
+    <col width="6" customWidth="1" style="78" min="47" max="47"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="75"/>
-    <row r="2" ht="12.75" customHeight="1" s="75">
-      <c r="M2" s="132" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="78"/>
+    <row r="2" ht="12.75" customHeight="1" s="78">
+      <c r="M2" s="133" t="inlineStr">
         <is>
           <t xml:space="preserve">FEUILLE  DE  POINTAGE </t>
         </is>
       </c>
-      <c r="N2" s="92" t="n"/>
-      <c r="O2" s="92" t="n"/>
-      <c r="P2" s="92" t="n"/>
-      <c r="Q2" s="92" t="n"/>
-      <c r="R2" s="92" t="n"/>
-      <c r="S2" s="92" t="n"/>
-      <c r="T2" s="92" t="n"/>
-      <c r="U2" s="92" t="n"/>
-      <c r="V2" s="92" t="n"/>
-      <c r="W2" s="92" t="n"/>
-      <c r="X2" s="92" t="n"/>
-      <c r="Y2" s="92" t="n"/>
-      <c r="Z2" s="92" t="n"/>
-      <c r="AA2" s="92" t="n"/>
-      <c r="AB2" s="92" t="n"/>
-      <c r="AC2" s="86" t="n"/>
+      <c r="N2" s="91" t="n"/>
+      <c r="O2" s="91" t="n"/>
+      <c r="P2" s="91" t="n"/>
+      <c r="Q2" s="91" t="n"/>
+      <c r="R2" s="91" t="n"/>
+      <c r="S2" s="91" t="n"/>
+      <c r="T2" s="91" t="n"/>
+      <c r="U2" s="91" t="n"/>
+      <c r="V2" s="91" t="n"/>
+      <c r="W2" s="91" t="n"/>
+      <c r="X2" s="91" t="n"/>
+      <c r="Y2" s="91" t="n"/>
+      <c r="Z2" s="91" t="n"/>
+      <c r="AA2" s="91" t="n"/>
+      <c r="AB2" s="91" t="n"/>
+      <c r="AC2" s="84" t="n"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" s="75">
-      <c r="M3" s="87" t="n"/>
-      <c r="N3" s="93" t="n"/>
-      <c r="O3" s="93" t="n"/>
-      <c r="P3" s="93" t="n"/>
-      <c r="Q3" s="93" t="n"/>
-      <c r="R3" s="93" t="n"/>
-      <c r="S3" s="93" t="n"/>
-      <c r="T3" s="93" t="n"/>
-      <c r="U3" s="93" t="n"/>
-      <c r="V3" s="93" t="n"/>
-      <c r="W3" s="93" t="n"/>
-      <c r="X3" s="93" t="n"/>
-      <c r="Y3" s="93" t="n"/>
-      <c r="Z3" s="93" t="n"/>
-      <c r="AA3" s="93" t="n"/>
-      <c r="AB3" s="93" t="n"/>
-      <c r="AC3" s="80" t="n"/>
+    <row r="3" ht="22.5" customHeight="1" s="78">
+      <c r="M3" s="85" t="n"/>
+      <c r="N3" s="92" t="n"/>
+      <c r="O3" s="92" t="n"/>
+      <c r="P3" s="92" t="n"/>
+      <c r="Q3" s="92" t="n"/>
+      <c r="R3" s="92" t="n"/>
+      <c r="S3" s="92" t="n"/>
+      <c r="T3" s="92" t="n"/>
+      <c r="U3" s="92" t="n"/>
+      <c r="V3" s="92" t="n"/>
+      <c r="W3" s="92" t="n"/>
+      <c r="X3" s="92" t="n"/>
+      <c r="Y3" s="92" t="n"/>
+      <c r="Z3" s="92" t="n"/>
+      <c r="AA3" s="92" t="n"/>
+      <c r="AB3" s="92" t="n"/>
+      <c r="AC3" s="75" t="n"/>
     </row>
-    <row r="4" ht="27.6" customHeight="1" s="75">
+    <row r="4" ht="27.6" customHeight="1" s="78">
       <c r="AC4" s="24" t="n"/>
       <c r="AD4" s="24" t="n"/>
       <c r="AE4" s="24" t="n"/>
-      <c r="AI4" s="95" t="inlineStr">
+      <c r="AI4" s="96" t="inlineStr">
         <is>
           <t xml:space="preserve">A N N E E </t>
         </is>
       </c>
-      <c r="AN4" s="82" t="n"/>
-      <c r="AO4" s="112" t="n">
+      <c r="AN4" s="94" t="n"/>
+      <c r="AO4" s="113" t="n">
         <v>2024</v>
       </c>
       <c r="AP4" s="71" t="n"/>
       <c r="AQ4" s="71" t="n"/>
       <c r="AR4" s="71" t="n"/>
       <c r="AS4" s="71" t="n"/>
-      <c r="AT4" s="97" t="n"/>
+      <c r="AT4" s="98" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1" s="75">
+    <row r="5" ht="15" customHeight="1" s="78">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
@@ -2096,14 +2101,14 @@
       <c r="R5" s="1" t="n"/>
       <c r="S5" s="1" t="n"/>
       <c r="T5" s="1" t="n"/>
-      <c r="U5" s="98" t="inlineStr">
+      <c r="U5" s="99" t="inlineStr">
         <is>
           <t xml:space="preserve">Matricule </t>
         </is>
       </c>
-      <c r="V5" s="99" t="n"/>
-      <c r="W5" s="99" t="n"/>
-      <c r="X5" s="100" t="n"/>
+      <c r="V5" s="100" t="n"/>
+      <c r="W5" s="100" t="n"/>
+      <c r="X5" s="101" t="n"/>
       <c r="Y5" s="1" t="n"/>
       <c r="Z5" s="1" t="n"/>
       <c r="AA5" s="1" t="n"/>
@@ -2128,15 +2133,15 @@
       <c r="AT5" s="1" t="n"/>
       <c r="AU5" s="1" t="n"/>
     </row>
-    <row r="6" ht="21" customHeight="1" s="75">
+    <row r="6" ht="21" customHeight="1" s="78">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Nom :</t>
         </is>
       </c>
-      <c r="B6" s="96" t="inlineStr">
-        <is>
-          <t>BLAL</t>
+      <c r="B6" s="102" t="inlineStr">
+        <is>
+          <t>Abacha</t>
         </is>
       </c>
       <c r="C6" s="71" t="n"/>
@@ -2150,37 +2155,39 @@
       <c r="K6" s="71" t="n"/>
       <c r="L6" s="71" t="n"/>
       <c r="M6" s="71" t="n"/>
-      <c r="N6" s="97" t="n"/>
-      <c r="Q6" s="78" t="n"/>
-      <c r="R6" s="78" t="n"/>
-      <c r="S6" s="78" t="n"/>
-      <c r="T6" s="78" t="n"/>
+      <c r="N6" s="98" t="n"/>
+      <c r="Q6" s="88" t="n"/>
+      <c r="R6" s="88" t="n"/>
+      <c r="S6" s="88" t="n"/>
+      <c r="T6" s="88" t="n"/>
       <c r="U6" s="117" t="n">
-        <v>224</v>
-      </c>
-      <c r="V6" s="77" t="n"/>
-      <c r="W6" s="77" t="n"/>
-      <c r="X6" s="89" t="n"/>
+        <v>299</v>
+      </c>
+      <c r="V6" s="80" t="n"/>
+      <c r="W6" s="80" t="n"/>
+      <c r="X6" s="87" t="n"/>
       <c r="AB6" s="109" t="inlineStr">
         <is>
           <t>Date Recrut.</t>
         </is>
       </c>
-      <c r="AG6" s="125" t="n"/>
+      <c r="AG6" s="127" t="n">
+        <v>45323</v>
+      </c>
       <c r="AH6" s="71" t="n"/>
       <c r="AI6" s="71" t="n"/>
-      <c r="AJ6" s="97" t="n"/>
+      <c r="AJ6" s="98" t="n"/>
       <c r="AK6" s="30" t="n"/>
     </row>
-    <row r="7" ht="21" customHeight="1" s="75">
+    <row r="7" ht="21" customHeight="1" s="78">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Prenom</t>
         </is>
       </c>
-      <c r="B7" s="96" t="inlineStr">
-        <is>
-          <t>Mustapha</t>
+      <c r="B7" s="102" t="inlineStr">
+        <is>
+          <t>Ala Eddine</t>
         </is>
       </c>
       <c r="C7" s="71" t="n"/>
@@ -2194,10 +2201,10 @@
       <c r="K7" s="71" t="n"/>
       <c r="L7" s="71" t="n"/>
       <c r="M7" s="71" t="n"/>
-      <c r="N7" s="97" t="n"/>
+      <c r="N7" s="98" t="n"/>
       <c r="AT7" s="69" t="n"/>
     </row>
-    <row r="8" ht="15.6" customHeight="1" s="75">
+    <row r="8" ht="15.6" customHeight="1" s="78">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonction </t>
@@ -2205,7 +2212,7 @@
       </c>
       <c r="B8" s="128" t="inlineStr">
         <is>
-          <t>Operateur produit</t>
+          <t>Operateur Produit</t>
         </is>
       </c>
       <c r="C8" s="71" t="n"/>
@@ -2219,43 +2226,47 @@
       <c r="K8" s="71" t="n"/>
       <c r="L8" s="71" t="n"/>
       <c r="M8" s="71" t="n"/>
-      <c r="N8" s="97" t="n"/>
-      <c r="P8" s="81" t="n"/>
-      <c r="R8" s="82" t="n"/>
-      <c r="S8" s="101" t="n"/>
-      <c r="T8" s="97" t="n"/>
+      <c r="N8" s="98" t="n"/>
+      <c r="P8" s="93" t="n"/>
+      <c r="R8" s="94" t="n"/>
+      <c r="S8" s="97" t="n"/>
+      <c r="T8" s="98" t="n"/>
       <c r="U8" s="21" t="n"/>
-      <c r="V8" s="81" t="n"/>
-      <c r="W8" s="82" t="n"/>
-      <c r="X8" s="101" t="n"/>
-      <c r="Y8" s="97" t="n"/>
-      <c r="AB8" s="78" t="inlineStr">
+      <c r="V8" s="93" t="n"/>
+      <c r="W8" s="94" t="n"/>
+      <c r="X8" s="97" t="n"/>
+      <c r="Y8" s="98" t="n"/>
+      <c r="AB8" s="88" t="inlineStr">
         <is>
           <t>Date Detach.</t>
         </is>
       </c>
-      <c r="AG8" s="103" t="n"/>
-      <c r="AH8" s="99" t="n"/>
-      <c r="AI8" s="99" t="n"/>
-      <c r="AJ8" s="100" t="n"/>
+      <c r="AG8" s="104" t="n">
+        <v>45351</v>
+      </c>
+      <c r="AH8" s="100" t="n"/>
+      <c r="AI8" s="100" t="n"/>
+      <c r="AJ8" s="101" t="n"/>
       <c r="AK8" s="31" t="n"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="75">
-      <c r="AB9" s="113" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="78">
+      <c r="AB9" s="112" t="inlineStr">
         <is>
           <t>Affect. Origine :</t>
         </is>
       </c>
-      <c r="AF9" s="82" t="n"/>
-      <c r="AG9" s="122" t="n"/>
+      <c r="AF9" s="94" t="n"/>
+      <c r="AG9" s="136" t="n">
+        <v>45328</v>
+      </c>
       <c r="AH9" s="71" t="n"/>
       <c r="AI9" s="71" t="n"/>
       <c r="AJ9" s="71" t="n"/>
       <c r="AK9" s="71" t="n"/>
       <c r="AL9" s="71" t="n"/>
-      <c r="AM9" s="97" t="n"/>
+      <c r="AM9" s="98" t="n"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="75">
+    <row r="10" ht="12.75" customHeight="1" s="78">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Adresse :</t>
@@ -2283,32 +2294,36 @@
       <c r="U10" s="71" t="n"/>
       <c r="V10" s="71" t="n"/>
       <c r="W10" s="71" t="n"/>
-      <c r="X10" s="97" t="n"/>
-      <c r="AB10" s="78" t="inlineStr">
+      <c r="X10" s="98" t="n"/>
+      <c r="AB10" s="88" t="inlineStr">
         <is>
           <t>Sit. Fam.</t>
         </is>
       </c>
-      <c r="AG10" s="114" t="n"/>
+      <c r="AG10" s="114" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="AH10" s="115" t="n"/>
       <c r="AI10" s="115" t="n"/>
       <c r="AJ10" s="116" t="n"/>
       <c r="AK10" s="32" t="n"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="75">
+    <row r="11" ht="12.75" customHeight="1" s="78">
       <c r="AB11" s="109" t="inlineStr">
         <is>
           <t>Nbrs Enfants :</t>
         </is>
       </c>
       <c r="AG11" s="105" t="n"/>
-      <c r="AH11" s="97" t="n"/>
+      <c r="AH11" s="98" t="n"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="75">
+    <row r="12" ht="12.75" customHeight="1" s="78">
       <c r="AG12" s="33" t="n"/>
       <c r="AH12" s="33" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="75">
+    <row r="13" ht="15" customHeight="1" s="78">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mois </t>
@@ -2460,24 +2475,20 @@
           <t>Cr</t>
         </is>
       </c>
-      <c r="AT13" s="88" t="inlineStr">
+      <c r="AT13" s="86" t="inlineStr">
         <is>
           <t>Observ.</t>
         </is>
       </c>
-      <c r="AU13" s="89" t="n"/>
+      <c r="AU13" s="87" t="n"/>
     </row>
-    <row r="14" ht="15" customHeight="1" s="75">
+    <row r="14" ht="15" customHeight="1" s="78">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Janvier</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+      <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
@@ -2563,7 +2574,7 @@
       <c r="AT14" s="107" t="n"/>
       <c r="AU14" s="108" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="75">
+    <row r="15" ht="15" customHeight="1" s="78">
       <c r="A15" s="9" t="inlineStr">
         <is>
           <t>Fevrier</t>
@@ -2571,59 +2582,55 @@
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>Cr</t>
-        </is>
-      </c>
-      <c r="K15" s="7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L15" s="8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L15" s="8" t="n"/>
       <c r="M15" s="8" t="n"/>
       <c r="N15" s="8" t="n"/>
       <c r="O15" s="10" t="n"/>
@@ -2699,7 +2706,7 @@
       <c r="AT15" s="72" t="n"/>
       <c r="AU15" s="73" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="75">
+    <row r="16" ht="15" customHeight="1" s="78">
       <c r="A16" s="9" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -2791,7 +2798,7 @@
       <c r="AT16" s="72" t="n"/>
       <c r="AU16" s="73" t="n"/>
     </row>
-    <row r="17" ht="15" customHeight="1" s="75">
+    <row r="17" ht="15" customHeight="1" s="78">
       <c r="A17" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">Avril </t>
@@ -2883,7 +2890,7 @@
       <c r="AT17" s="72" t="n"/>
       <c r="AU17" s="73" t="n"/>
     </row>
-    <row r="18" ht="15" customHeight="1" s="75">
+    <row r="18" ht="15" customHeight="1" s="78">
       <c r="A18" s="9" t="inlineStr">
         <is>
           <t>Mai</t>
@@ -2975,7 +2982,7 @@
       <c r="AT18" s="72" t="n"/>
       <c r="AU18" s="73" t="n"/>
     </row>
-    <row r="19" ht="15" customHeight="1" s="75">
+    <row r="19" ht="15" customHeight="1" s="78">
       <c r="A19" s="9" t="inlineStr">
         <is>
           <t>Juin</t>
@@ -3067,7 +3074,7 @@
       <c r="AT19" s="72" t="n"/>
       <c r="AU19" s="73" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="75">
+    <row r="20" ht="15" customHeight="1" s="78">
       <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Juillet</t>
@@ -3159,7 +3166,7 @@
       <c r="AT20" s="72" t="n"/>
       <c r="AU20" s="73" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="75">
+    <row r="21" ht="15" customHeight="1" s="78">
       <c r="A21" s="9" t="inlineStr">
         <is>
           <t>Aout</t>
@@ -3251,7 +3258,7 @@
       <c r="AT21" s="72" t="n"/>
       <c r="AU21" s="73" t="n"/>
     </row>
-    <row r="22" ht="15" customHeight="1" s="75">
+    <row r="22" ht="15" customHeight="1" s="78">
       <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Septembre</t>
@@ -3343,7 +3350,7 @@
       <c r="AT22" s="72" t="n"/>
       <c r="AU22" s="73" t="n"/>
     </row>
-    <row r="23" ht="15" customHeight="1" s="75">
+    <row r="23" ht="15" customHeight="1" s="78">
       <c r="A23" s="9" t="inlineStr">
         <is>
           <t>Octobre</t>
@@ -3435,162 +3442,42 @@
       <c r="AT23" s="72" t="n"/>
       <c r="AU23" s="73" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="75">
+    <row r="24" ht="15" customHeight="1" s="78">
       <c r="A24" s="9" t="inlineStr">
         <is>
           <t>Novembre</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="N24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="O24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="P24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Q24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="U24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="W24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="X24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="Y24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Z24" s="8" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="AA24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AB24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AC24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AD24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE24" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="8" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="8" t="n"/>
+      <c r="G24" s="8" t="n"/>
+      <c r="H24" s="8" t="n"/>
+      <c r="I24" s="8" t="n"/>
+      <c r="J24" s="8" t="n"/>
+      <c r="K24" s="8" t="n"/>
+      <c r="L24" s="8" t="n"/>
+      <c r="M24" s="8" t="n"/>
+      <c r="N24" s="8" t="n"/>
+      <c r="O24" s="8" t="n"/>
+      <c r="P24" s="8" t="n"/>
+      <c r="Q24" s="8" t="n"/>
+      <c r="R24" s="8" t="n"/>
+      <c r="S24" s="8" t="n"/>
+      <c r="T24" s="8" t="n"/>
+      <c r="U24" s="8" t="n"/>
+      <c r="V24" s="8" t="n"/>
+      <c r="W24" s="8" t="n"/>
+      <c r="X24" s="8" t="n"/>
+      <c r="Y24" s="8" t="n"/>
+      <c r="Z24" s="8" t="n"/>
+      <c r="AA24" s="8" t="n"/>
+      <c r="AB24" s="8" t="n"/>
+      <c r="AC24" s="8" t="n"/>
+      <c r="AD24" s="8" t="n"/>
+      <c r="AE24" s="8" t="n"/>
       <c r="AF24" s="29" t="n"/>
       <c r="AG24" s="48">
         <f>COUNTIF($B24:$AF24,AG$13)</f>
@@ -3647,7 +3534,7 @@
       <c r="AT24" s="72" t="n"/>
       <c r="AU24" s="73" t="n"/>
     </row>
-    <row r="25" ht="15" customHeight="1" s="75">
+    <row r="25" ht="15" customHeight="1" s="78">
       <c r="A25" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">Decembre </t>
@@ -3736,10 +3623,10 @@
         <f>COUNTIF($B25:$AF25,AS$13)</f>
         <v/>
       </c>
-      <c r="AT25" s="83" t="n"/>
-      <c r="AU25" s="84" t="n"/>
+      <c r="AT25" s="81" t="n"/>
+      <c r="AU25" s="82" t="n"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1" s="75">
+    <row r="26" ht="13.5" customHeight="1" s="78">
       <c r="A26" s="13" t="n"/>
       <c r="B26" s="14" t="n"/>
       <c r="C26" s="14" t="n"/>
@@ -3764,7 +3651,7 @@
       <c r="V26" s="14" t="n"/>
       <c r="W26" s="14" t="n"/>
       <c r="X26" s="14" t="n"/>
-      <c r="Y26" s="94" t="n"/>
+      <c r="Y26" s="95" t="n"/>
       <c r="AE26" s="14" t="n"/>
       <c r="AF26" s="14" t="n"/>
       <c r="AG26" s="62">
@@ -3823,33 +3710,33 @@
         <f>AG26+AI26-AH26</f>
         <v/>
       </c>
-      <c r="AU26" s="80" t="n"/>
+      <c r="AU26" s="75" t="n"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1" s="75">
-      <c r="A27" s="126" t="inlineStr">
+    <row r="27" ht="13.5" customHeight="1" s="78">
+      <c r="A27" s="125" t="inlineStr">
         <is>
           <t>Indemnité Route :</t>
         </is>
       </c>
-      <c r="C27" s="127" t="n"/>
-      <c r="D27" s="91" t="n"/>
-      <c r="E27" s="92" t="n"/>
-      <c r="F27" s="92" t="n"/>
-      <c r="G27" s="92" t="n"/>
-      <c r="H27" s="92" t="n"/>
-      <c r="I27" s="92" t="n"/>
-      <c r="J27" s="86" t="n"/>
+      <c r="C27" s="126" t="n"/>
+      <c r="D27" s="90" t="n"/>
+      <c r="E27" s="91" t="n"/>
+      <c r="F27" s="91" t="n"/>
+      <c r="G27" s="91" t="n"/>
+      <c r="H27" s="91" t="n"/>
+      <c r="I27" s="91" t="n"/>
+      <c r="J27" s="84" t="n"/>
       <c r="M27" s="19" t="n"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1" s="75">
-      <c r="C28" s="127" t="n"/>
-      <c r="D28" s="87" t="n"/>
-      <c r="E28" s="93" t="n"/>
-      <c r="F28" s="93" t="n"/>
-      <c r="G28" s="93" t="n"/>
-      <c r="H28" s="93" t="n"/>
-      <c r="I28" s="93" t="n"/>
-      <c r="J28" s="80" t="n"/>
+    <row r="28" ht="13.5" customHeight="1" s="78">
+      <c r="C28" s="126" t="n"/>
+      <c r="D28" s="85" t="n"/>
+      <c r="E28" s="92" t="n"/>
+      <c r="F28" s="92" t="n"/>
+      <c r="G28" s="92" t="n"/>
+      <c r="H28" s="92" t="n"/>
+      <c r="I28" s="92" t="n"/>
+      <c r="J28" s="75" t="n"/>
       <c r="M28" s="123" t="n"/>
       <c r="N28" s="71" t="n"/>
       <c r="O28" s="71" t="n"/>
@@ -3857,14 +3744,14 @@
       <c r="Q28" s="71" t="n"/>
       <c r="R28" s="71" t="n"/>
       <c r="S28" s="71" t="n"/>
-      <c r="T28" s="97" t="n"/>
-      <c r="V28" s="76" t="inlineStr">
+      <c r="T28" s="98" t="n"/>
+      <c r="V28" s="79" t="inlineStr">
         <is>
           <t>Dates</t>
         </is>
       </c>
-      <c r="W28" s="77" t="n"/>
-      <c r="X28" s="77" t="n"/>
+      <c r="W28" s="80" t="n"/>
+      <c r="X28" s="80" t="n"/>
       <c r="Y28" s="129" t="inlineStr">
         <is>
           <t xml:space="preserve">O B S E R V A T I O N S </t>
@@ -3893,8 +3780,8 @@
       <c r="AT28" s="119" t="n"/>
       <c r="AU28" s="108" t="n"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1" s="75">
-      <c r="V29" s="134" t="n"/>
+    <row r="29" ht="13.5" customHeight="1" s="78">
+      <c r="V29" s="132" t="n"/>
       <c r="W29" s="119" t="n"/>
       <c r="X29" s="119" t="n"/>
       <c r="Y29" s="118" t="n"/>
@@ -3921,8 +3808,8 @@
       <c r="AT29" s="119" t="n"/>
       <c r="AU29" s="120" t="n"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1" s="75">
-      <c r="A30" s="74" t="inlineStr">
+    <row r="30" ht="13.5" customHeight="1" s="78">
+      <c r="A30" s="77" t="inlineStr">
         <is>
           <t>Kilometrage :</t>
         </is>
@@ -3942,15 +3829,11 @@
       <c r="O30" s="71" t="n"/>
       <c r="P30" s="71" t="n"/>
       <c r="Q30" s="71" t="n"/>
-      <c r="R30" s="97" t="n"/>
+      <c r="R30" s="98" t="n"/>
       <c r="V30" s="70" t="n"/>
       <c r="W30" s="71" t="n"/>
       <c r="X30" s="71" t="n"/>
-      <c r="Y30" s="106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  PRISE  DE FONCTION </t>
-        </is>
-      </c>
+      <c r="Y30" s="106" t="n"/>
       <c r="Z30" s="71" t="n"/>
       <c r="AA30" s="71" t="n"/>
       <c r="AB30" s="71" t="n"/>
@@ -3974,11 +3857,11 @@
       <c r="AT30" s="71" t="n"/>
       <c r="AU30" s="73" t="n"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1" s="75">
+    <row r="31" ht="13.5" customHeight="1" s="78">
       <c r="V31" s="70" t="n"/>
       <c r="W31" s="71" t="n"/>
       <c r="X31" s="71" t="n"/>
-      <c r="Y31" s="104" t="n"/>
+      <c r="Y31" s="76" t="n"/>
       <c r="Z31" s="71" t="n"/>
       <c r="AA31" s="71" t="n"/>
       <c r="AB31" s="71" t="n"/>
@@ -4002,8 +3885,8 @@
       <c r="AT31" s="71" t="n"/>
       <c r="AU31" s="73" t="n"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1" s="75">
-      <c r="A32" s="78" t="inlineStr">
+    <row r="32" ht="13.5" customHeight="1" s="78">
+      <c r="A32" s="88" t="inlineStr">
         <is>
           <t xml:space="preserve">Nuisances </t>
         </is>
@@ -4017,11 +3900,11 @@
       <c r="J32" s="71" t="n"/>
       <c r="K32" s="71" t="n"/>
       <c r="L32" s="71" t="n"/>
-      <c r="M32" s="97" t="n"/>
+      <c r="M32" s="98" t="n"/>
       <c r="V32" s="70" t="n"/>
       <c r="W32" s="71" t="n"/>
       <c r="X32" s="71" t="n"/>
-      <c r="Y32" s="104" t="n"/>
+      <c r="Y32" s="76" t="n"/>
       <c r="Z32" s="71" t="n"/>
       <c r="AA32" s="71" t="n"/>
       <c r="AB32" s="71" t="n"/>
@@ -4045,7 +3928,7 @@
       <c r="AT32" s="71" t="n"/>
       <c r="AU32" s="73" t="n"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1" s="75">
+    <row r="33" ht="13.5" customHeight="1" s="78">
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="17" t="n"/>
@@ -4084,33 +3967,33 @@
       <c r="AT33" s="71" t="n"/>
       <c r="AU33" s="73" t="n"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1" s="75">
-      <c r="B34" s="90" t="inlineStr">
+    <row r="34" ht="19.5" customHeight="1" s="78">
+      <c r="B34" s="89" t="inlineStr">
         <is>
           <t>CR Avec IZCV</t>
         </is>
       </c>
-      <c r="H34" s="102" t="inlineStr">
+      <c r="H34" s="103" t="inlineStr">
         <is>
           <t>#REF!</t>
         </is>
       </c>
-      <c r="I34" s="86" t="n"/>
+      <c r="I34" s="84" t="n"/>
       <c r="J34" s="20" t="n"/>
       <c r="K34" s="20" t="n"/>
       <c r="L34" s="20" t="n"/>
-      <c r="M34" s="90" t="inlineStr">
+      <c r="M34" s="89" t="inlineStr">
         <is>
           <t>CR Sans IZCV</t>
         </is>
       </c>
       <c r="R34" s="22" t="n"/>
-      <c r="S34" s="85" t="inlineStr">
+      <c r="S34" s="83" t="inlineStr">
         <is>
           <t>#REF!</t>
         </is>
       </c>
-      <c r="T34" s="86" t="n"/>
+      <c r="T34" s="84" t="n"/>
       <c r="V34" s="70" t="n"/>
       <c r="W34" s="71" t="n"/>
       <c r="X34" s="71" t="n"/>
@@ -4138,19 +4021,19 @@
       <c r="AT34" s="71" t="n"/>
       <c r="AU34" s="73" t="n"/>
     </row>
-    <row r="35" ht="19.5" customHeight="1" s="75">
-      <c r="H35" s="79">
+    <row r="35" ht="19.5" customHeight="1" s="78">
+      <c r="H35" s="74">
         <f>H34+AG26+AI26-AH26</f>
         <v/>
       </c>
-      <c r="I35" s="80" t="n"/>
-      <c r="J35" s="90" t="n"/>
-      <c r="K35" s="90" t="n"/>
-      <c r="L35" s="90" t="n"/>
+      <c r="I35" s="75" t="n"/>
+      <c r="J35" s="89" t="n"/>
+      <c r="K35" s="89" t="n"/>
+      <c r="L35" s="89" t="n"/>
       <c r="R35" s="22" t="n"/>
-      <c r="S35" s="87" t="n"/>
-      <c r="T35" s="80" t="n"/>
-      <c r="V35" s="133" t="n"/>
+      <c r="S35" s="85" t="n"/>
+      <c r="T35" s="75" t="n"/>
+      <c r="V35" s="134" t="n"/>
       <c r="W35" s="111" t="n"/>
       <c r="X35" s="111" t="n"/>
       <c r="Y35" s="110" t="n"/>
@@ -4175,9 +4058,9 @@
       <c r="AR35" s="111" t="n"/>
       <c r="AS35" s="111" t="n"/>
       <c r="AT35" s="111" t="n"/>
-      <c r="AU35" s="84" t="n"/>
+      <c r="AU35" s="82" t="n"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1" s="75">
+    <row r="36" ht="13.5" customHeight="1" s="78">
       <c r="V36" s="109" t="n"/>
       <c r="W36" s="109" t="n"/>
       <c r="X36" s="109" t="n"/>
@@ -4205,1004 +4088,1003 @@
       <c r="AT36" s="109" t="n"/>
       <c r="AU36" s="109" t="n"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1" s="75">
-      <c r="N37" s="90" t="inlineStr">
+    <row r="37" ht="12.75" customHeight="1" s="78">
+      <c r="N37" s="89" t="inlineStr">
         <is>
           <t>Autre ZONE</t>
         </is>
       </c>
-      <c r="S37" s="85" t="inlineStr">
+      <c r="S37" s="83" t="inlineStr">
         <is>
           <t>#REF!</t>
         </is>
       </c>
-      <c r="T37" s="86" t="n"/>
+      <c r="T37" s="84" t="n"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1" s="75">
-      <c r="S38" s="87" t="n"/>
-      <c r="T38" s="80" t="n"/>
+    <row r="38" ht="13.5" customHeight="1" s="78">
+      <c r="S38" s="85" t="n"/>
+      <c r="T38" s="75" t="n"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1" s="75"/>
-    <row r="40" ht="12.75" customHeight="1" s="75"/>
-    <row r="41" ht="12.75" customHeight="1" s="75"/>
-    <row r="42" ht="12.75" customHeight="1" s="75"/>
-    <row r="43" ht="12.75" customHeight="1" s="75"/>
-    <row r="44" ht="12.75" customHeight="1" s="75"/>
-    <row r="45" ht="12.75" customHeight="1" s="75"/>
-    <row r="46" ht="12.75" customHeight="1" s="75"/>
-    <row r="47" ht="12.75" customHeight="1" s="75"/>
-    <row r="48" ht="12.75" customHeight="1" s="75"/>
-    <row r="49" ht="12.75" customHeight="1" s="75"/>
-    <row r="50" ht="12.75" customHeight="1" s="75"/>
-    <row r="51" ht="12.75" customHeight="1" s="75"/>
-    <row r="52" ht="12.75" customHeight="1" s="75"/>
-    <row r="53" ht="12.75" customHeight="1" s="75"/>
-    <row r="54" ht="12.75" customHeight="1" s="75"/>
-    <row r="55" ht="12.75" customHeight="1" s="75"/>
-    <row r="56" ht="12.75" customHeight="1" s="75"/>
-    <row r="57" ht="12.75" customHeight="1" s="75"/>
-    <row r="58" ht="12.75" customHeight="1" s="75"/>
-    <row r="59" ht="12.75" customHeight="1" s="75"/>
-    <row r="60" ht="12.75" customHeight="1" s="75"/>
-    <row r="61" ht="12.75" customHeight="1" s="75"/>
-    <row r="62" ht="12.75" customHeight="1" s="75"/>
-    <row r="63" ht="12.75" customHeight="1" s="75"/>
-    <row r="64" ht="12.75" customHeight="1" s="75"/>
-    <row r="65" ht="12.75" customHeight="1" s="75"/>
-    <row r="66" ht="12.75" customHeight="1" s="75"/>
-    <row r="67" ht="12.75" customHeight="1" s="75"/>
-    <row r="68" ht="12.75" customHeight="1" s="75"/>
-    <row r="69" ht="12.75" customHeight="1" s="75"/>
-    <row r="70" ht="12.75" customHeight="1" s="75"/>
-    <row r="71" ht="12.75" customHeight="1" s="75"/>
-    <row r="72" ht="12.75" customHeight="1" s="75"/>
-    <row r="73" ht="12.75" customHeight="1" s="75"/>
-    <row r="74" ht="12.75" customHeight="1" s="75"/>
-    <row r="75" ht="12.75" customHeight="1" s="75"/>
-    <row r="76" ht="12.75" customHeight="1" s="75"/>
-    <row r="77" ht="12.75" customHeight="1" s="75"/>
-    <row r="78" ht="12.75" customHeight="1" s="75"/>
-    <row r="79" ht="12.75" customHeight="1" s="75"/>
-    <row r="80" ht="12.75" customHeight="1" s="75"/>
-    <row r="81" ht="12.75" customHeight="1" s="75"/>
-    <row r="82" ht="12.75" customHeight="1" s="75"/>
-    <row r="83" ht="12.75" customHeight="1" s="75"/>
-    <row r="84" ht="12.75" customHeight="1" s="75"/>
-    <row r="85" ht="12.75" customHeight="1" s="75"/>
-    <row r="86" ht="12.75" customHeight="1" s="75"/>
-    <row r="87" ht="12.75" customHeight="1" s="75"/>
-    <row r="88" ht="12.75" customHeight="1" s="75"/>
-    <row r="89" ht="12.75" customHeight="1" s="75"/>
-    <row r="90" ht="12.75" customHeight="1" s="75"/>
-    <row r="91" ht="12.75" customHeight="1" s="75"/>
-    <row r="92" ht="12.75" customHeight="1" s="75"/>
-    <row r="93" ht="12.75" customHeight="1" s="75"/>
-    <row r="94" ht="12.75" customHeight="1" s="75"/>
-    <row r="95" ht="12.75" customHeight="1" s="75"/>
-    <row r="96" ht="12.75" customHeight="1" s="75"/>
-    <row r="97" ht="12.75" customHeight="1" s="75"/>
-    <row r="98" ht="12.75" customHeight="1" s="75"/>
-    <row r="99" ht="12.75" customHeight="1" s="75"/>
-    <row r="100" ht="12.75" customHeight="1" s="75"/>
-    <row r="101" ht="12.75" customHeight="1" s="75"/>
-    <row r="102" ht="12.75" customHeight="1" s="75"/>
-    <row r="103" ht="12.75" customHeight="1" s="75"/>
-    <row r="104" ht="12.75" customHeight="1" s="75"/>
-    <row r="105" ht="12.75" customHeight="1" s="75"/>
-    <row r="106" ht="12.75" customHeight="1" s="75"/>
-    <row r="107" ht="12.75" customHeight="1" s="75"/>
-    <row r="108" ht="12.75" customHeight="1" s="75"/>
-    <row r="109" ht="12.75" customHeight="1" s="75"/>
-    <row r="110" ht="12.75" customHeight="1" s="75"/>
-    <row r="111" ht="12.75" customHeight="1" s="75"/>
-    <row r="112" ht="12.75" customHeight="1" s="75"/>
-    <row r="113" ht="12.75" customHeight="1" s="75"/>
-    <row r="114" ht="12.75" customHeight="1" s="75"/>
-    <row r="115" ht="12.75" customHeight="1" s="75"/>
-    <row r="116" ht="12.75" customHeight="1" s="75"/>
-    <row r="117" ht="12.75" customHeight="1" s="75"/>
-    <row r="118" ht="12.75" customHeight="1" s="75"/>
-    <row r="119" ht="12.75" customHeight="1" s="75"/>
-    <row r="120" ht="12.75" customHeight="1" s="75"/>
-    <row r="121" ht="12.75" customHeight="1" s="75"/>
-    <row r="122" ht="12.75" customHeight="1" s="75"/>
-    <row r="123" ht="12.75" customHeight="1" s="75"/>
-    <row r="124" ht="12.75" customHeight="1" s="75"/>
-    <row r="125" ht="12.75" customHeight="1" s="75"/>
-    <row r="126" ht="12.75" customHeight="1" s="75"/>
-    <row r="127" ht="12.75" customHeight="1" s="75"/>
-    <row r="128" ht="12.75" customHeight="1" s="75"/>
-    <row r="129" ht="12.75" customHeight="1" s="75"/>
-    <row r="130" ht="12.75" customHeight="1" s="75"/>
-    <row r="131" ht="12.75" customHeight="1" s="75"/>
-    <row r="132" ht="12.75" customHeight="1" s="75"/>
-    <row r="133" ht="12.75" customHeight="1" s="75"/>
-    <row r="134" ht="12.75" customHeight="1" s="75"/>
-    <row r="135" ht="12.75" customHeight="1" s="75"/>
-    <row r="136" ht="12.75" customHeight="1" s="75"/>
-    <row r="137" ht="12.75" customHeight="1" s="75"/>
-    <row r="138" ht="12.75" customHeight="1" s="75"/>
-    <row r="139" ht="12.75" customHeight="1" s="75"/>
-    <row r="140" ht="12.75" customHeight="1" s="75"/>
-    <row r="141" ht="12.75" customHeight="1" s="75"/>
-    <row r="142" ht="12.75" customHeight="1" s="75"/>
-    <row r="143" ht="12.75" customHeight="1" s="75"/>
-    <row r="144" ht="12.75" customHeight="1" s="75"/>
-    <row r="145" ht="12.75" customHeight="1" s="75"/>
-    <row r="146" ht="12.75" customHeight="1" s="75"/>
-    <row r="147" ht="12.75" customHeight="1" s="75"/>
-    <row r="148" ht="12.75" customHeight="1" s="75"/>
-    <row r="149" ht="12.75" customHeight="1" s="75"/>
-    <row r="150" ht="12.75" customHeight="1" s="75"/>
-    <row r="151" ht="12.75" customHeight="1" s="75"/>
-    <row r="152" ht="12.75" customHeight="1" s="75"/>
-    <row r="153" ht="12.75" customHeight="1" s="75"/>
-    <row r="154" ht="12.75" customHeight="1" s="75"/>
-    <row r="155" ht="12.75" customHeight="1" s="75"/>
-    <row r="156" ht="12.75" customHeight="1" s="75"/>
-    <row r="157" ht="12.75" customHeight="1" s="75"/>
-    <row r="158" ht="12.75" customHeight="1" s="75"/>
-    <row r="159" ht="12.75" customHeight="1" s="75"/>
-    <row r="160" ht="12.75" customHeight="1" s="75"/>
-    <row r="161" ht="12.75" customHeight="1" s="75"/>
-    <row r="162" ht="12.75" customHeight="1" s="75"/>
-    <row r="163" ht="12.75" customHeight="1" s="75"/>
-    <row r="164" ht="12.75" customHeight="1" s="75"/>
-    <row r="165" ht="12.75" customHeight="1" s="75"/>
-    <row r="166" ht="12.75" customHeight="1" s="75"/>
-    <row r="167" ht="12.75" customHeight="1" s="75"/>
-    <row r="168" ht="12.75" customHeight="1" s="75"/>
-    <row r="169" ht="12.75" customHeight="1" s="75"/>
-    <row r="170" ht="12.75" customHeight="1" s="75"/>
-    <row r="171" ht="12.75" customHeight="1" s="75"/>
-    <row r="172" ht="12.75" customHeight="1" s="75"/>
-    <row r="173" ht="12.75" customHeight="1" s="75"/>
-    <row r="174" ht="12.75" customHeight="1" s="75"/>
-    <row r="175" ht="12.75" customHeight="1" s="75"/>
-    <row r="176" ht="12.75" customHeight="1" s="75"/>
-    <row r="177" ht="12.75" customHeight="1" s="75"/>
-    <row r="178" ht="12.75" customHeight="1" s="75"/>
-    <row r="179" ht="12.75" customHeight="1" s="75"/>
-    <row r="180" ht="12.75" customHeight="1" s="75"/>
-    <row r="181" ht="12.75" customHeight="1" s="75"/>
-    <row r="182" ht="12.75" customHeight="1" s="75"/>
-    <row r="183" ht="12.75" customHeight="1" s="75"/>
-    <row r="184" ht="12.75" customHeight="1" s="75"/>
-    <row r="185" ht="12.75" customHeight="1" s="75"/>
-    <row r="186" ht="12.75" customHeight="1" s="75"/>
-    <row r="187" ht="12.75" customHeight="1" s="75"/>
-    <row r="188" ht="12.75" customHeight="1" s="75"/>
-    <row r="189" ht="12.75" customHeight="1" s="75"/>
-    <row r="190" ht="12.75" customHeight="1" s="75"/>
-    <row r="191" ht="12.75" customHeight="1" s="75"/>
-    <row r="192" ht="12.75" customHeight="1" s="75"/>
-    <row r="193" ht="12.75" customHeight="1" s="75"/>
-    <row r="194" ht="12.75" customHeight="1" s="75"/>
-    <row r="195" ht="12.75" customHeight="1" s="75"/>
-    <row r="196" ht="12.75" customHeight="1" s="75"/>
-    <row r="197" ht="12.75" customHeight="1" s="75"/>
-    <row r="198" ht="12.75" customHeight="1" s="75"/>
-    <row r="199" ht="12.75" customHeight="1" s="75"/>
-    <row r="200" ht="12.75" customHeight="1" s="75"/>
-    <row r="201" ht="12.75" customHeight="1" s="75"/>
-    <row r="202" ht="12.75" customHeight="1" s="75"/>
-    <row r="203" ht="12.75" customHeight="1" s="75"/>
-    <row r="204" ht="12.75" customHeight="1" s="75"/>
-    <row r="205" ht="12.75" customHeight="1" s="75"/>
-    <row r="206" ht="12.75" customHeight="1" s="75"/>
-    <row r="207" ht="12.75" customHeight="1" s="75"/>
-    <row r="208" ht="12.75" customHeight="1" s="75"/>
-    <row r="209" ht="12.75" customHeight="1" s="75"/>
-    <row r="210" ht="12.75" customHeight="1" s="75"/>
-    <row r="211" ht="12.75" customHeight="1" s="75"/>
-    <row r="212" ht="12.75" customHeight="1" s="75"/>
-    <row r="213" ht="12.75" customHeight="1" s="75"/>
-    <row r="214" ht="12.75" customHeight="1" s="75"/>
-    <row r="215" ht="12.75" customHeight="1" s="75"/>
-    <row r="216" ht="12.75" customHeight="1" s="75"/>
-    <row r="217" ht="12.75" customHeight="1" s="75"/>
-    <row r="218" ht="12.75" customHeight="1" s="75"/>
-    <row r="219" ht="12.75" customHeight="1" s="75"/>
-    <row r="220" ht="12.75" customHeight="1" s="75"/>
-    <row r="221" ht="12.75" customHeight="1" s="75"/>
-    <row r="222" ht="12.75" customHeight="1" s="75"/>
-    <row r="223" ht="12.75" customHeight="1" s="75"/>
-    <row r="224" ht="12.75" customHeight="1" s="75"/>
-    <row r="225" ht="12.75" customHeight="1" s="75"/>
-    <row r="226" ht="12.75" customHeight="1" s="75"/>
-    <row r="227" ht="12.75" customHeight="1" s="75"/>
-    <row r="228" ht="12.75" customHeight="1" s="75"/>
-    <row r="229" ht="12.75" customHeight="1" s="75"/>
-    <row r="230" ht="12.75" customHeight="1" s="75"/>
-    <row r="231" ht="12.75" customHeight="1" s="75"/>
-    <row r="232" ht="12.75" customHeight="1" s="75"/>
-    <row r="233" ht="12.75" customHeight="1" s="75"/>
-    <row r="234" ht="12.75" customHeight="1" s="75"/>
-    <row r="235" ht="12.75" customHeight="1" s="75"/>
-    <row r="236" ht="12.75" customHeight="1" s="75"/>
-    <row r="237" ht="12.75" customHeight="1" s="75"/>
-    <row r="238" ht="12.75" customHeight="1" s="75"/>
-    <row r="239" ht="12.75" customHeight="1" s="75"/>
-    <row r="240" ht="12.75" customHeight="1" s="75"/>
-    <row r="241" ht="12.75" customHeight="1" s="75"/>
-    <row r="242" ht="12.75" customHeight="1" s="75"/>
-    <row r="243" ht="12.75" customHeight="1" s="75"/>
-    <row r="244" ht="12.75" customHeight="1" s="75"/>
-    <row r="245" ht="12.75" customHeight="1" s="75"/>
-    <row r="246" ht="12.75" customHeight="1" s="75"/>
-    <row r="247" ht="12.75" customHeight="1" s="75"/>
-    <row r="248" ht="12.75" customHeight="1" s="75"/>
-    <row r="249" ht="12.75" customHeight="1" s="75"/>
-    <row r="250" ht="12.75" customHeight="1" s="75"/>
-    <row r="251" ht="12.75" customHeight="1" s="75"/>
-    <row r="252" ht="12.75" customHeight="1" s="75"/>
-    <row r="253" ht="12.75" customHeight="1" s="75"/>
-    <row r="254" ht="12.75" customHeight="1" s="75"/>
-    <row r="255" ht="12.75" customHeight="1" s="75"/>
-    <row r="256" ht="12.75" customHeight="1" s="75"/>
-    <row r="257" ht="12.75" customHeight="1" s="75"/>
-    <row r="258" ht="12.75" customHeight="1" s="75"/>
-    <row r="259" ht="12.75" customHeight="1" s="75"/>
-    <row r="260" ht="12.75" customHeight="1" s="75"/>
-    <row r="261" ht="12.75" customHeight="1" s="75"/>
-    <row r="262" ht="12.75" customHeight="1" s="75"/>
-    <row r="263" ht="12.75" customHeight="1" s="75"/>
-    <row r="264" ht="12.75" customHeight="1" s="75"/>
-    <row r="265" ht="12.75" customHeight="1" s="75"/>
-    <row r="266" ht="12.75" customHeight="1" s="75"/>
-    <row r="267" ht="12.75" customHeight="1" s="75"/>
-    <row r="268" ht="12.75" customHeight="1" s="75"/>
-    <row r="269" ht="12.75" customHeight="1" s="75"/>
-    <row r="270" ht="12.75" customHeight="1" s="75"/>
-    <row r="271" ht="12.75" customHeight="1" s="75"/>
-    <row r="272" ht="12.75" customHeight="1" s="75"/>
-    <row r="273" ht="12.75" customHeight="1" s="75"/>
-    <row r="274" ht="12.75" customHeight="1" s="75"/>
-    <row r="275" ht="12.75" customHeight="1" s="75"/>
-    <row r="276" ht="12.75" customHeight="1" s="75"/>
-    <row r="277" ht="12.75" customHeight="1" s="75"/>
-    <row r="278" ht="12.75" customHeight="1" s="75"/>
-    <row r="279" ht="12.75" customHeight="1" s="75"/>
-    <row r="280" ht="12.75" customHeight="1" s="75"/>
-    <row r="281" ht="12.75" customHeight="1" s="75"/>
-    <row r="282" ht="12.75" customHeight="1" s="75"/>
-    <row r="283" ht="12.75" customHeight="1" s="75"/>
-    <row r="284" ht="12.75" customHeight="1" s="75"/>
-    <row r="285" ht="12.75" customHeight="1" s="75"/>
-    <row r="286" ht="12.75" customHeight="1" s="75"/>
-    <row r="287" ht="12.75" customHeight="1" s="75"/>
-    <row r="288" ht="12.75" customHeight="1" s="75"/>
-    <row r="289" ht="12.75" customHeight="1" s="75"/>
-    <row r="290" ht="12.75" customHeight="1" s="75"/>
-    <row r="291" ht="12.75" customHeight="1" s="75"/>
-    <row r="292" ht="12.75" customHeight="1" s="75"/>
-    <row r="293" ht="12.75" customHeight="1" s="75"/>
-    <row r="294" ht="12.75" customHeight="1" s="75"/>
-    <row r="295" ht="12.75" customHeight="1" s="75"/>
-    <row r="296" ht="12.75" customHeight="1" s="75"/>
-    <row r="297" ht="12.75" customHeight="1" s="75"/>
-    <row r="298" ht="12.75" customHeight="1" s="75"/>
-    <row r="299" ht="12.75" customHeight="1" s="75"/>
-    <row r="300" ht="12.75" customHeight="1" s="75"/>
-    <row r="301" ht="12.75" customHeight="1" s="75"/>
-    <row r="302" ht="12.75" customHeight="1" s="75"/>
-    <row r="303" ht="12.75" customHeight="1" s="75"/>
-    <row r="304" ht="12.75" customHeight="1" s="75"/>
-    <row r="305" ht="12.75" customHeight="1" s="75"/>
-    <row r="306" ht="12.75" customHeight="1" s="75"/>
-    <row r="307" ht="12.75" customHeight="1" s="75"/>
-    <row r="308" ht="12.75" customHeight="1" s="75"/>
-    <row r="309" ht="12.75" customHeight="1" s="75"/>
-    <row r="310" ht="12.75" customHeight="1" s="75"/>
-    <row r="311" ht="12.75" customHeight="1" s="75"/>
-    <row r="312" ht="12.75" customHeight="1" s="75"/>
-    <row r="313" ht="12.75" customHeight="1" s="75"/>
-    <row r="314" ht="12.75" customHeight="1" s="75"/>
-    <row r="315" ht="12.75" customHeight="1" s="75"/>
-    <row r="316" ht="12.75" customHeight="1" s="75"/>
-    <row r="317" ht="12.75" customHeight="1" s="75"/>
-    <row r="318" ht="12.75" customHeight="1" s="75"/>
-    <row r="319" ht="12.75" customHeight="1" s="75"/>
-    <row r="320" ht="12.75" customHeight="1" s="75"/>
-    <row r="321" ht="12.75" customHeight="1" s="75"/>
-    <row r="322" ht="12.75" customHeight="1" s="75"/>
-    <row r="323" ht="12.75" customHeight="1" s="75"/>
-    <row r="324" ht="12.75" customHeight="1" s="75"/>
-    <row r="325" ht="12.75" customHeight="1" s="75"/>
-    <row r="326" ht="12.75" customHeight="1" s="75"/>
-    <row r="327" ht="12.75" customHeight="1" s="75"/>
-    <row r="328" ht="12.75" customHeight="1" s="75"/>
-    <row r="329" ht="12.75" customHeight="1" s="75"/>
-    <row r="330" ht="12.75" customHeight="1" s="75"/>
-    <row r="331" ht="12.75" customHeight="1" s="75"/>
-    <row r="332" ht="12.75" customHeight="1" s="75"/>
-    <row r="333" ht="12.75" customHeight="1" s="75"/>
-    <row r="334" ht="12.75" customHeight="1" s="75"/>
-    <row r="335" ht="12.75" customHeight="1" s="75"/>
-    <row r="336" ht="12.75" customHeight="1" s="75"/>
-    <row r="337" ht="12.75" customHeight="1" s="75"/>
-    <row r="338" ht="12.75" customHeight="1" s="75"/>
-    <row r="339" ht="12.75" customHeight="1" s="75"/>
-    <row r="340" ht="12.75" customHeight="1" s="75"/>
-    <row r="341" ht="12.75" customHeight="1" s="75"/>
-    <row r="342" ht="12.75" customHeight="1" s="75"/>
-    <row r="343" ht="12.75" customHeight="1" s="75"/>
-    <row r="344" ht="12.75" customHeight="1" s="75"/>
-    <row r="345" ht="12.75" customHeight="1" s="75"/>
-    <row r="346" ht="12.75" customHeight="1" s="75"/>
-    <row r="347" ht="12.75" customHeight="1" s="75"/>
-    <row r="348" ht="12.75" customHeight="1" s="75"/>
-    <row r="349" ht="12.75" customHeight="1" s="75"/>
-    <row r="350" ht="12.75" customHeight="1" s="75"/>
-    <row r="351" ht="12.75" customHeight="1" s="75"/>
-    <row r="352" ht="12.75" customHeight="1" s="75"/>
-    <row r="353" ht="12.75" customHeight="1" s="75"/>
-    <row r="354" ht="12.75" customHeight="1" s="75"/>
-    <row r="355" ht="12.75" customHeight="1" s="75"/>
-    <row r="356" ht="12.75" customHeight="1" s="75"/>
-    <row r="357" ht="12.75" customHeight="1" s="75"/>
-    <row r="358" ht="12.75" customHeight="1" s="75"/>
-    <row r="359" ht="12.75" customHeight="1" s="75"/>
-    <row r="360" ht="12.75" customHeight="1" s="75"/>
-    <row r="361" ht="12.75" customHeight="1" s="75"/>
-    <row r="362" ht="12.75" customHeight="1" s="75"/>
-    <row r="363" ht="12.75" customHeight="1" s="75"/>
-    <row r="364" ht="12.75" customHeight="1" s="75"/>
-    <row r="365" ht="12.75" customHeight="1" s="75"/>
-    <row r="366" ht="12.75" customHeight="1" s="75"/>
-    <row r="367" ht="12.75" customHeight="1" s="75"/>
-    <row r="368" ht="12.75" customHeight="1" s="75"/>
-    <row r="369" ht="12.75" customHeight="1" s="75"/>
-    <row r="370" ht="12.75" customHeight="1" s="75"/>
-    <row r="371" ht="12.75" customHeight="1" s="75"/>
-    <row r="372" ht="12.75" customHeight="1" s="75"/>
-    <row r="373" ht="12.75" customHeight="1" s="75"/>
-    <row r="374" ht="12.75" customHeight="1" s="75"/>
-    <row r="375" ht="12.75" customHeight="1" s="75"/>
-    <row r="376" ht="12.75" customHeight="1" s="75"/>
-    <row r="377" ht="12.75" customHeight="1" s="75"/>
-    <row r="378" ht="12.75" customHeight="1" s="75"/>
-    <row r="379" ht="12.75" customHeight="1" s="75"/>
-    <row r="380" ht="12.75" customHeight="1" s="75"/>
-    <row r="381" ht="12.75" customHeight="1" s="75"/>
-    <row r="382" ht="12.75" customHeight="1" s="75"/>
-    <row r="383" ht="12.75" customHeight="1" s="75"/>
-    <row r="384" ht="12.75" customHeight="1" s="75"/>
-    <row r="385" ht="12.75" customHeight="1" s="75"/>
-    <row r="386" ht="12.75" customHeight="1" s="75"/>
-    <row r="387" ht="12.75" customHeight="1" s="75"/>
-    <row r="388" ht="12.75" customHeight="1" s="75"/>
-    <row r="389" ht="12.75" customHeight="1" s="75"/>
-    <row r="390" ht="12.75" customHeight="1" s="75"/>
-    <row r="391" ht="12.75" customHeight="1" s="75"/>
-    <row r="392" ht="12.75" customHeight="1" s="75"/>
-    <row r="393" ht="12.75" customHeight="1" s="75"/>
-    <row r="394" ht="12.75" customHeight="1" s="75"/>
-    <row r="395" ht="12.75" customHeight="1" s="75"/>
-    <row r="396" ht="12.75" customHeight="1" s="75"/>
-    <row r="397" ht="12.75" customHeight="1" s="75"/>
-    <row r="398" ht="12.75" customHeight="1" s="75"/>
-    <row r="399" ht="12.75" customHeight="1" s="75"/>
-    <row r="400" ht="12.75" customHeight="1" s="75"/>
-    <row r="401" ht="12.75" customHeight="1" s="75"/>
-    <row r="402" ht="12.75" customHeight="1" s="75"/>
-    <row r="403" ht="12.75" customHeight="1" s="75"/>
-    <row r="404" ht="12.75" customHeight="1" s="75"/>
-    <row r="405" ht="12.75" customHeight="1" s="75"/>
-    <row r="406" ht="12.75" customHeight="1" s="75"/>
-    <row r="407" ht="12.75" customHeight="1" s="75"/>
-    <row r="408" ht="12.75" customHeight="1" s="75"/>
-    <row r="409" ht="12.75" customHeight="1" s="75"/>
-    <row r="410" ht="12.75" customHeight="1" s="75"/>
-    <row r="411" ht="12.75" customHeight="1" s="75"/>
-    <row r="412" ht="12.75" customHeight="1" s="75"/>
-    <row r="413" ht="12.75" customHeight="1" s="75"/>
-    <row r="414" ht="12.75" customHeight="1" s="75"/>
-    <row r="415" ht="12.75" customHeight="1" s="75"/>
-    <row r="416" ht="12.75" customHeight="1" s="75"/>
-    <row r="417" ht="12.75" customHeight="1" s="75"/>
-    <row r="418" ht="12.75" customHeight="1" s="75"/>
-    <row r="419" ht="12.75" customHeight="1" s="75"/>
-    <row r="420" ht="12.75" customHeight="1" s="75"/>
-    <row r="421" ht="12.75" customHeight="1" s="75"/>
-    <row r="422" ht="12.75" customHeight="1" s="75"/>
-    <row r="423" ht="12.75" customHeight="1" s="75"/>
-    <row r="424" ht="12.75" customHeight="1" s="75"/>
-    <row r="425" ht="12.75" customHeight="1" s="75"/>
-    <row r="426" ht="12.75" customHeight="1" s="75"/>
-    <row r="427" ht="12.75" customHeight="1" s="75"/>
-    <row r="428" ht="12.75" customHeight="1" s="75"/>
-    <row r="429" ht="12.75" customHeight="1" s="75"/>
-    <row r="430" ht="12.75" customHeight="1" s="75"/>
-    <row r="431" ht="12.75" customHeight="1" s="75"/>
-    <row r="432" ht="12.75" customHeight="1" s="75"/>
-    <row r="433" ht="12.75" customHeight="1" s="75"/>
-    <row r="434" ht="12.75" customHeight="1" s="75"/>
-    <row r="435" ht="12.75" customHeight="1" s="75"/>
-    <row r="436" ht="12.75" customHeight="1" s="75"/>
-    <row r="437" ht="12.75" customHeight="1" s="75"/>
-    <row r="438" ht="12.75" customHeight="1" s="75"/>
-    <row r="439" ht="12.75" customHeight="1" s="75"/>
-    <row r="440" ht="12.75" customHeight="1" s="75"/>
-    <row r="441" ht="12.75" customHeight="1" s="75"/>
-    <row r="442" ht="12.75" customHeight="1" s="75"/>
-    <row r="443" ht="12.75" customHeight="1" s="75"/>
-    <row r="444" ht="12.75" customHeight="1" s="75"/>
-    <row r="445" ht="12.75" customHeight="1" s="75"/>
-    <row r="446" ht="12.75" customHeight="1" s="75"/>
-    <row r="447" ht="12.75" customHeight="1" s="75"/>
-    <row r="448" ht="12.75" customHeight="1" s="75"/>
-    <row r="449" ht="12.75" customHeight="1" s="75"/>
-    <row r="450" ht="12.75" customHeight="1" s="75"/>
-    <row r="451" ht="12.75" customHeight="1" s="75"/>
-    <row r="452" ht="12.75" customHeight="1" s="75"/>
-    <row r="453" ht="12.75" customHeight="1" s="75"/>
-    <row r="454" ht="12.75" customHeight="1" s="75"/>
-    <row r="455" ht="12.75" customHeight="1" s="75"/>
-    <row r="456" ht="12.75" customHeight="1" s="75"/>
-    <row r="457" ht="12.75" customHeight="1" s="75"/>
-    <row r="458" ht="12.75" customHeight="1" s="75"/>
-    <row r="459" ht="12.75" customHeight="1" s="75"/>
-    <row r="460" ht="12.75" customHeight="1" s="75"/>
-    <row r="461" ht="12.75" customHeight="1" s="75"/>
-    <row r="462" ht="12.75" customHeight="1" s="75"/>
-    <row r="463" ht="12.75" customHeight="1" s="75"/>
-    <row r="464" ht="12.75" customHeight="1" s="75"/>
-    <row r="465" ht="12.75" customHeight="1" s="75"/>
-    <row r="466" ht="12.75" customHeight="1" s="75"/>
-    <row r="467" ht="12.75" customHeight="1" s="75"/>
-    <row r="468" ht="12.75" customHeight="1" s="75"/>
-    <row r="469" ht="12.75" customHeight="1" s="75"/>
-    <row r="470" ht="12.75" customHeight="1" s="75"/>
-    <row r="471" ht="12.75" customHeight="1" s="75"/>
-    <row r="472" ht="12.75" customHeight="1" s="75"/>
-    <row r="473" ht="12.75" customHeight="1" s="75"/>
-    <row r="474" ht="12.75" customHeight="1" s="75"/>
-    <row r="475" ht="12.75" customHeight="1" s="75"/>
-    <row r="476" ht="12.75" customHeight="1" s="75"/>
-    <row r="477" ht="12.75" customHeight="1" s="75"/>
-    <row r="478" ht="12.75" customHeight="1" s="75"/>
-    <row r="479" ht="12.75" customHeight="1" s="75"/>
-    <row r="480" ht="12.75" customHeight="1" s="75"/>
-    <row r="481" ht="12.75" customHeight="1" s="75"/>
-    <row r="482" ht="12.75" customHeight="1" s="75"/>
-    <row r="483" ht="12.75" customHeight="1" s="75"/>
-    <row r="484" ht="12.75" customHeight="1" s="75"/>
-    <row r="485" ht="12.75" customHeight="1" s="75"/>
-    <row r="486" ht="12.75" customHeight="1" s="75"/>
-    <row r="487" ht="12.75" customHeight="1" s="75"/>
-    <row r="488" ht="12.75" customHeight="1" s="75"/>
-    <row r="489" ht="12.75" customHeight="1" s="75"/>
-    <row r="490" ht="12.75" customHeight="1" s="75"/>
-    <row r="491" ht="12.75" customHeight="1" s="75"/>
-    <row r="492" ht="12.75" customHeight="1" s="75"/>
-    <row r="493" ht="12.75" customHeight="1" s="75"/>
-    <row r="494" ht="12.75" customHeight="1" s="75"/>
-    <row r="495" ht="12.75" customHeight="1" s="75"/>
-    <row r="496" ht="12.75" customHeight="1" s="75"/>
-    <row r="497" ht="12.75" customHeight="1" s="75"/>
-    <row r="498" ht="12.75" customHeight="1" s="75"/>
-    <row r="499" ht="12.75" customHeight="1" s="75"/>
-    <row r="500" ht="12.75" customHeight="1" s="75"/>
-    <row r="501" ht="12.75" customHeight="1" s="75"/>
-    <row r="502" ht="12.75" customHeight="1" s="75"/>
-    <row r="503" ht="12.75" customHeight="1" s="75"/>
-    <row r="504" ht="12.75" customHeight="1" s="75"/>
-    <row r="505" ht="12.75" customHeight="1" s="75"/>
-    <row r="506" ht="12.75" customHeight="1" s="75"/>
-    <row r="507" ht="12.75" customHeight="1" s="75"/>
-    <row r="508" ht="12.75" customHeight="1" s="75"/>
-    <row r="509" ht="12.75" customHeight="1" s="75"/>
-    <row r="510" ht="12.75" customHeight="1" s="75"/>
-    <row r="511" ht="12.75" customHeight="1" s="75"/>
-    <row r="512" ht="12.75" customHeight="1" s="75"/>
-    <row r="513" ht="12.75" customHeight="1" s="75"/>
-    <row r="514" ht="12.75" customHeight="1" s="75"/>
-    <row r="515" ht="12.75" customHeight="1" s="75"/>
-    <row r="516" ht="12.75" customHeight="1" s="75"/>
-    <row r="517" ht="12.75" customHeight="1" s="75"/>
-    <row r="518" ht="12.75" customHeight="1" s="75"/>
-    <row r="519" ht="12.75" customHeight="1" s="75"/>
-    <row r="520" ht="12.75" customHeight="1" s="75"/>
-    <row r="521" ht="12.75" customHeight="1" s="75"/>
-    <row r="522" ht="12.75" customHeight="1" s="75"/>
-    <row r="523" ht="12.75" customHeight="1" s="75"/>
-    <row r="524" ht="12.75" customHeight="1" s="75"/>
-    <row r="525" ht="12.75" customHeight="1" s="75"/>
-    <row r="526" ht="12.75" customHeight="1" s="75"/>
-    <row r="527" ht="12.75" customHeight="1" s="75"/>
-    <row r="528" ht="12.75" customHeight="1" s="75"/>
-    <row r="529" ht="12.75" customHeight="1" s="75"/>
-    <row r="530" ht="12.75" customHeight="1" s="75"/>
-    <row r="531" ht="12.75" customHeight="1" s="75"/>
-    <row r="532" ht="12.75" customHeight="1" s="75"/>
-    <row r="533" ht="12.75" customHeight="1" s="75"/>
-    <row r="534" ht="12.75" customHeight="1" s="75"/>
-    <row r="535" ht="12.75" customHeight="1" s="75"/>
-    <row r="536" ht="12.75" customHeight="1" s="75"/>
-    <row r="537" ht="12.75" customHeight="1" s="75"/>
-    <row r="538" ht="12.75" customHeight="1" s="75"/>
-    <row r="539" ht="12.75" customHeight="1" s="75"/>
-    <row r="540" ht="12.75" customHeight="1" s="75"/>
-    <row r="541" ht="12.75" customHeight="1" s="75"/>
-    <row r="542" ht="12.75" customHeight="1" s="75"/>
-    <row r="543" ht="12.75" customHeight="1" s="75"/>
-    <row r="544" ht="12.75" customHeight="1" s="75"/>
-    <row r="545" ht="12.75" customHeight="1" s="75"/>
-    <row r="546" ht="12.75" customHeight="1" s="75"/>
-    <row r="547" ht="12.75" customHeight="1" s="75"/>
-    <row r="548" ht="12.75" customHeight="1" s="75"/>
-    <row r="549" ht="12.75" customHeight="1" s="75"/>
-    <row r="550" ht="12.75" customHeight="1" s="75"/>
-    <row r="551" ht="12.75" customHeight="1" s="75"/>
-    <row r="552" ht="12.75" customHeight="1" s="75"/>
-    <row r="553" ht="12.75" customHeight="1" s="75"/>
-    <row r="554" ht="12.75" customHeight="1" s="75"/>
-    <row r="555" ht="12.75" customHeight="1" s="75"/>
-    <row r="556" ht="12.75" customHeight="1" s="75"/>
-    <row r="557" ht="12.75" customHeight="1" s="75"/>
-    <row r="558" ht="12.75" customHeight="1" s="75"/>
-    <row r="559" ht="12.75" customHeight="1" s="75"/>
-    <row r="560" ht="12.75" customHeight="1" s="75"/>
-    <row r="561" ht="12.75" customHeight="1" s="75"/>
-    <row r="562" ht="12.75" customHeight="1" s="75"/>
-    <row r="563" ht="12.75" customHeight="1" s="75"/>
-    <row r="564" ht="12.75" customHeight="1" s="75"/>
-    <row r="565" ht="12.75" customHeight="1" s="75"/>
-    <row r="566" ht="12.75" customHeight="1" s="75"/>
-    <row r="567" ht="12.75" customHeight="1" s="75"/>
-    <row r="568" ht="12.75" customHeight="1" s="75"/>
-    <row r="569" ht="12.75" customHeight="1" s="75"/>
-    <row r="570" ht="12.75" customHeight="1" s="75"/>
-    <row r="571" ht="12.75" customHeight="1" s="75"/>
-    <row r="572" ht="12.75" customHeight="1" s="75"/>
-    <row r="573" ht="12.75" customHeight="1" s="75"/>
-    <row r="574" ht="12.75" customHeight="1" s="75"/>
-    <row r="575" ht="12.75" customHeight="1" s="75"/>
-    <row r="576" ht="12.75" customHeight="1" s="75"/>
-    <row r="577" ht="12.75" customHeight="1" s="75"/>
-    <row r="578" ht="12.75" customHeight="1" s="75"/>
-    <row r="579" ht="12.75" customHeight="1" s="75"/>
-    <row r="580" ht="12.75" customHeight="1" s="75"/>
-    <row r="581" ht="12.75" customHeight="1" s="75"/>
-    <row r="582" ht="12.75" customHeight="1" s="75"/>
-    <row r="583" ht="12.75" customHeight="1" s="75"/>
-    <row r="584" ht="12.75" customHeight="1" s="75"/>
-    <row r="585" ht="12.75" customHeight="1" s="75"/>
-    <row r="586" ht="12.75" customHeight="1" s="75"/>
-    <row r="587" ht="12.75" customHeight="1" s="75"/>
-    <row r="588" ht="12.75" customHeight="1" s="75"/>
-    <row r="589" ht="12.75" customHeight="1" s="75"/>
-    <row r="590" ht="12.75" customHeight="1" s="75"/>
-    <row r="591" ht="12.75" customHeight="1" s="75"/>
-    <row r="592" ht="12.75" customHeight="1" s="75"/>
-    <row r="593" ht="12.75" customHeight="1" s="75"/>
-    <row r="594" ht="12.75" customHeight="1" s="75"/>
-    <row r="595" ht="12.75" customHeight="1" s="75"/>
-    <row r="596" ht="12.75" customHeight="1" s="75"/>
-    <row r="597" ht="12.75" customHeight="1" s="75"/>
-    <row r="598" ht="12.75" customHeight="1" s="75"/>
-    <row r="599" ht="12.75" customHeight="1" s="75"/>
-    <row r="600" ht="12.75" customHeight="1" s="75"/>
-    <row r="601" ht="12.75" customHeight="1" s="75"/>
-    <row r="602" ht="12.75" customHeight="1" s="75"/>
-    <row r="603" ht="12.75" customHeight="1" s="75"/>
-    <row r="604" ht="12.75" customHeight="1" s="75"/>
-    <row r="605" ht="12.75" customHeight="1" s="75"/>
-    <row r="606" ht="12.75" customHeight="1" s="75"/>
-    <row r="607" ht="12.75" customHeight="1" s="75"/>
-    <row r="608" ht="12.75" customHeight="1" s="75"/>
-    <row r="609" ht="12.75" customHeight="1" s="75"/>
-    <row r="610" ht="12.75" customHeight="1" s="75"/>
-    <row r="611" ht="12.75" customHeight="1" s="75"/>
-    <row r="612" ht="12.75" customHeight="1" s="75"/>
-    <row r="613" ht="12.75" customHeight="1" s="75"/>
-    <row r="614" ht="12.75" customHeight="1" s="75"/>
-    <row r="615" ht="12.75" customHeight="1" s="75"/>
-    <row r="616" ht="12.75" customHeight="1" s="75"/>
-    <row r="617" ht="12.75" customHeight="1" s="75"/>
-    <row r="618" ht="12.75" customHeight="1" s="75"/>
-    <row r="619" ht="12.75" customHeight="1" s="75"/>
-    <row r="620" ht="12.75" customHeight="1" s="75"/>
-    <row r="621" ht="12.75" customHeight="1" s="75"/>
-    <row r="622" ht="12.75" customHeight="1" s="75"/>
-    <row r="623" ht="12.75" customHeight="1" s="75"/>
-    <row r="624" ht="12.75" customHeight="1" s="75"/>
-    <row r="625" ht="12.75" customHeight="1" s="75"/>
-    <row r="626" ht="12.75" customHeight="1" s="75"/>
-    <row r="627" ht="12.75" customHeight="1" s="75"/>
-    <row r="628" ht="12.75" customHeight="1" s="75"/>
-    <row r="629" ht="12.75" customHeight="1" s="75"/>
-    <row r="630" ht="12.75" customHeight="1" s="75"/>
-    <row r="631" ht="12.75" customHeight="1" s="75"/>
-    <row r="632" ht="12.75" customHeight="1" s="75"/>
-    <row r="633" ht="12.75" customHeight="1" s="75"/>
-    <row r="634" ht="12.75" customHeight="1" s="75"/>
-    <row r="635" ht="12.75" customHeight="1" s="75"/>
-    <row r="636" ht="12.75" customHeight="1" s="75"/>
-    <row r="637" ht="12.75" customHeight="1" s="75"/>
-    <row r="638" ht="12.75" customHeight="1" s="75"/>
-    <row r="639" ht="12.75" customHeight="1" s="75"/>
-    <row r="640" ht="12.75" customHeight="1" s="75"/>
-    <row r="641" ht="12.75" customHeight="1" s="75"/>
-    <row r="642" ht="12.75" customHeight="1" s="75"/>
-    <row r="643" ht="12.75" customHeight="1" s="75"/>
-    <row r="644" ht="12.75" customHeight="1" s="75"/>
-    <row r="645" ht="12.75" customHeight="1" s="75"/>
-    <row r="646" ht="12.75" customHeight="1" s="75"/>
-    <row r="647" ht="12.75" customHeight="1" s="75"/>
-    <row r="648" ht="12.75" customHeight="1" s="75"/>
-    <row r="649" ht="12.75" customHeight="1" s="75"/>
-    <row r="650" ht="12.75" customHeight="1" s="75"/>
-    <row r="651" ht="12.75" customHeight="1" s="75"/>
-    <row r="652" ht="12.75" customHeight="1" s="75"/>
-    <row r="653" ht="12.75" customHeight="1" s="75"/>
-    <row r="654" ht="12.75" customHeight="1" s="75"/>
-    <row r="655" ht="12.75" customHeight="1" s="75"/>
-    <row r="656" ht="12.75" customHeight="1" s="75"/>
-    <row r="657" ht="12.75" customHeight="1" s="75"/>
-    <row r="658" ht="12.75" customHeight="1" s="75"/>
-    <row r="659" ht="12.75" customHeight="1" s="75"/>
-    <row r="660" ht="12.75" customHeight="1" s="75"/>
-    <row r="661" ht="12.75" customHeight="1" s="75"/>
-    <row r="662" ht="12.75" customHeight="1" s="75"/>
-    <row r="663" ht="12.75" customHeight="1" s="75"/>
-    <row r="664" ht="12.75" customHeight="1" s="75"/>
-    <row r="665" ht="12.75" customHeight="1" s="75"/>
-    <row r="666" ht="12.75" customHeight="1" s="75"/>
-    <row r="667" ht="12.75" customHeight="1" s="75"/>
-    <row r="668" ht="12.75" customHeight="1" s="75"/>
-    <row r="669" ht="12.75" customHeight="1" s="75"/>
-    <row r="670" ht="12.75" customHeight="1" s="75"/>
-    <row r="671" ht="12.75" customHeight="1" s="75"/>
-    <row r="672" ht="12.75" customHeight="1" s="75"/>
-    <row r="673" ht="12.75" customHeight="1" s="75"/>
-    <row r="674" ht="12.75" customHeight="1" s="75"/>
-    <row r="675" ht="12.75" customHeight="1" s="75"/>
-    <row r="676" ht="12.75" customHeight="1" s="75"/>
-    <row r="677" ht="12.75" customHeight="1" s="75"/>
-    <row r="678" ht="12.75" customHeight="1" s="75"/>
-    <row r="679" ht="12.75" customHeight="1" s="75"/>
-    <row r="680" ht="12.75" customHeight="1" s="75"/>
-    <row r="681" ht="12.75" customHeight="1" s="75"/>
-    <row r="682" ht="12.75" customHeight="1" s="75"/>
-    <row r="683" ht="12.75" customHeight="1" s="75"/>
-    <row r="684" ht="12.75" customHeight="1" s="75"/>
-    <row r="685" ht="12.75" customHeight="1" s="75"/>
-    <row r="686" ht="12.75" customHeight="1" s="75"/>
-    <row r="687" ht="12.75" customHeight="1" s="75"/>
-    <row r="688" ht="12.75" customHeight="1" s="75"/>
-    <row r="689" ht="12.75" customHeight="1" s="75"/>
-    <row r="690" ht="12.75" customHeight="1" s="75"/>
-    <row r="691" ht="12.75" customHeight="1" s="75"/>
-    <row r="692" ht="12.75" customHeight="1" s="75"/>
-    <row r="693" ht="12.75" customHeight="1" s="75"/>
-    <row r="694" ht="12.75" customHeight="1" s="75"/>
-    <row r="695" ht="12.75" customHeight="1" s="75"/>
-    <row r="696" ht="12.75" customHeight="1" s="75"/>
-    <row r="697" ht="12.75" customHeight="1" s="75"/>
-    <row r="698" ht="12.75" customHeight="1" s="75"/>
-    <row r="699" ht="12.75" customHeight="1" s="75"/>
-    <row r="700" ht="12.75" customHeight="1" s="75"/>
-    <row r="701" ht="12.75" customHeight="1" s="75"/>
-    <row r="702" ht="12.75" customHeight="1" s="75"/>
-    <row r="703" ht="12.75" customHeight="1" s="75"/>
-    <row r="704" ht="12.75" customHeight="1" s="75"/>
-    <row r="705" ht="12.75" customHeight="1" s="75"/>
-    <row r="706" ht="12.75" customHeight="1" s="75"/>
-    <row r="707" ht="12.75" customHeight="1" s="75"/>
-    <row r="708" ht="12.75" customHeight="1" s="75"/>
-    <row r="709" ht="12.75" customHeight="1" s="75"/>
-    <row r="710" ht="12.75" customHeight="1" s="75"/>
-    <row r="711" ht="12.75" customHeight="1" s="75"/>
-    <row r="712" ht="12.75" customHeight="1" s="75"/>
-    <row r="713" ht="12.75" customHeight="1" s="75"/>
-    <row r="714" ht="12.75" customHeight="1" s="75"/>
-    <row r="715" ht="12.75" customHeight="1" s="75"/>
-    <row r="716" ht="12.75" customHeight="1" s="75"/>
-    <row r="717" ht="12.75" customHeight="1" s="75"/>
-    <row r="718" ht="12.75" customHeight="1" s="75"/>
-    <row r="719" ht="12.75" customHeight="1" s="75"/>
-    <row r="720" ht="12.75" customHeight="1" s="75"/>
-    <row r="721" ht="12.75" customHeight="1" s="75"/>
-    <row r="722" ht="12.75" customHeight="1" s="75"/>
-    <row r="723" ht="12.75" customHeight="1" s="75"/>
-    <row r="724" ht="12.75" customHeight="1" s="75"/>
-    <row r="725" ht="12.75" customHeight="1" s="75"/>
-    <row r="726" ht="12.75" customHeight="1" s="75"/>
-    <row r="727" ht="12.75" customHeight="1" s="75"/>
-    <row r="728" ht="12.75" customHeight="1" s="75"/>
-    <row r="729" ht="12.75" customHeight="1" s="75"/>
-    <row r="730" ht="12.75" customHeight="1" s="75"/>
-    <row r="731" ht="12.75" customHeight="1" s="75"/>
-    <row r="732" ht="12.75" customHeight="1" s="75"/>
-    <row r="733" ht="12.75" customHeight="1" s="75"/>
-    <row r="734" ht="12.75" customHeight="1" s="75"/>
-    <row r="735" ht="12.75" customHeight="1" s="75"/>
-    <row r="736" ht="12.75" customHeight="1" s="75"/>
-    <row r="737" ht="12.75" customHeight="1" s="75"/>
-    <row r="738" ht="12.75" customHeight="1" s="75"/>
-    <row r="739" ht="12.75" customHeight="1" s="75"/>
-    <row r="740" ht="12.75" customHeight="1" s="75"/>
-    <row r="741" ht="12.75" customHeight="1" s="75"/>
-    <row r="742" ht="12.75" customHeight="1" s="75"/>
-    <row r="743" ht="12.75" customHeight="1" s="75"/>
-    <row r="744" ht="12.75" customHeight="1" s="75"/>
-    <row r="745" ht="12.75" customHeight="1" s="75"/>
-    <row r="746" ht="12.75" customHeight="1" s="75"/>
-    <row r="747" ht="12.75" customHeight="1" s="75"/>
-    <row r="748" ht="12.75" customHeight="1" s="75"/>
-    <row r="749" ht="12.75" customHeight="1" s="75"/>
-    <row r="750" ht="12.75" customHeight="1" s="75"/>
-    <row r="751" ht="12.75" customHeight="1" s="75"/>
-    <row r="752" ht="12.75" customHeight="1" s="75"/>
-    <row r="753" ht="12.75" customHeight="1" s="75"/>
-    <row r="754" ht="12.75" customHeight="1" s="75"/>
-    <row r="755" ht="12.75" customHeight="1" s="75"/>
-    <row r="756" ht="12.75" customHeight="1" s="75"/>
-    <row r="757" ht="12.75" customHeight="1" s="75"/>
-    <row r="758" ht="12.75" customHeight="1" s="75"/>
-    <row r="759" ht="12.75" customHeight="1" s="75"/>
-    <row r="760" ht="12.75" customHeight="1" s="75"/>
-    <row r="761" ht="12.75" customHeight="1" s="75"/>
-    <row r="762" ht="12.75" customHeight="1" s="75"/>
-    <row r="763" ht="12.75" customHeight="1" s="75"/>
-    <row r="764" ht="12.75" customHeight="1" s="75"/>
-    <row r="765" ht="12.75" customHeight="1" s="75"/>
-    <row r="766" ht="12.75" customHeight="1" s="75"/>
-    <row r="767" ht="12.75" customHeight="1" s="75"/>
-    <row r="768" ht="12.75" customHeight="1" s="75"/>
-    <row r="769" ht="12.75" customHeight="1" s="75"/>
-    <row r="770" ht="12.75" customHeight="1" s="75"/>
-    <row r="771" ht="12.75" customHeight="1" s="75"/>
-    <row r="772" ht="12.75" customHeight="1" s="75"/>
-    <row r="773" ht="12.75" customHeight="1" s="75"/>
-    <row r="774" ht="12.75" customHeight="1" s="75"/>
-    <row r="775" ht="12.75" customHeight="1" s="75"/>
-    <row r="776" ht="12.75" customHeight="1" s="75"/>
-    <row r="777" ht="12.75" customHeight="1" s="75"/>
-    <row r="778" ht="12.75" customHeight="1" s="75"/>
-    <row r="779" ht="12.75" customHeight="1" s="75"/>
-    <row r="780" ht="12.75" customHeight="1" s="75"/>
-    <row r="781" ht="12.75" customHeight="1" s="75"/>
-    <row r="782" ht="12.75" customHeight="1" s="75"/>
-    <row r="783" ht="12.75" customHeight="1" s="75"/>
-    <row r="784" ht="12.75" customHeight="1" s="75"/>
-    <row r="785" ht="12.75" customHeight="1" s="75"/>
-    <row r="786" ht="12.75" customHeight="1" s="75"/>
-    <row r="787" ht="12.75" customHeight="1" s="75"/>
-    <row r="788" ht="12.75" customHeight="1" s="75"/>
-    <row r="789" ht="12.75" customHeight="1" s="75"/>
-    <row r="790" ht="12.75" customHeight="1" s="75"/>
-    <row r="791" ht="12.75" customHeight="1" s="75"/>
-    <row r="792" ht="12.75" customHeight="1" s="75"/>
-    <row r="793" ht="12.75" customHeight="1" s="75"/>
-    <row r="794" ht="12.75" customHeight="1" s="75"/>
-    <row r="795" ht="12.75" customHeight="1" s="75"/>
-    <row r="796" ht="12.75" customHeight="1" s="75"/>
-    <row r="797" ht="12.75" customHeight="1" s="75"/>
-    <row r="798" ht="12.75" customHeight="1" s="75"/>
-    <row r="799" ht="12.75" customHeight="1" s="75"/>
-    <row r="800" ht="12.75" customHeight="1" s="75"/>
-    <row r="801" ht="12.75" customHeight="1" s="75"/>
-    <row r="802" ht="12.75" customHeight="1" s="75"/>
-    <row r="803" ht="12.75" customHeight="1" s="75"/>
-    <row r="804" ht="12.75" customHeight="1" s="75"/>
-    <row r="805" ht="12.75" customHeight="1" s="75"/>
-    <row r="806" ht="12.75" customHeight="1" s="75"/>
-    <row r="807" ht="12.75" customHeight="1" s="75"/>
-    <row r="808" ht="12.75" customHeight="1" s="75"/>
-    <row r="809" ht="12.75" customHeight="1" s="75"/>
-    <row r="810" ht="12.75" customHeight="1" s="75"/>
-    <row r="811" ht="12.75" customHeight="1" s="75"/>
-    <row r="812" ht="12.75" customHeight="1" s="75"/>
-    <row r="813" ht="12.75" customHeight="1" s="75"/>
-    <row r="814" ht="12.75" customHeight="1" s="75"/>
-    <row r="815" ht="12.75" customHeight="1" s="75"/>
-    <row r="816" ht="12.75" customHeight="1" s="75"/>
-    <row r="817" ht="12.75" customHeight="1" s="75"/>
-    <row r="818" ht="12.75" customHeight="1" s="75"/>
-    <row r="819" ht="12.75" customHeight="1" s="75"/>
-    <row r="820" ht="12.75" customHeight="1" s="75"/>
-    <row r="821" ht="12.75" customHeight="1" s="75"/>
-    <row r="822" ht="12.75" customHeight="1" s="75"/>
-    <row r="823" ht="12.75" customHeight="1" s="75"/>
-    <row r="824" ht="12.75" customHeight="1" s="75"/>
-    <row r="825" ht="12.75" customHeight="1" s="75"/>
-    <row r="826" ht="12.75" customHeight="1" s="75"/>
-    <row r="827" ht="12.75" customHeight="1" s="75"/>
-    <row r="828" ht="12.75" customHeight="1" s="75"/>
-    <row r="829" ht="12.75" customHeight="1" s="75"/>
-    <row r="830" ht="12.75" customHeight="1" s="75"/>
-    <row r="831" ht="12.75" customHeight="1" s="75"/>
-    <row r="832" ht="12.75" customHeight="1" s="75"/>
-    <row r="833" ht="12.75" customHeight="1" s="75"/>
-    <row r="834" ht="12.75" customHeight="1" s="75"/>
-    <row r="835" ht="12.75" customHeight="1" s="75"/>
-    <row r="836" ht="12.75" customHeight="1" s="75"/>
-    <row r="837" ht="12.75" customHeight="1" s="75"/>
-    <row r="838" ht="12.75" customHeight="1" s="75"/>
-    <row r="839" ht="12.75" customHeight="1" s="75"/>
-    <row r="840" ht="12.75" customHeight="1" s="75"/>
-    <row r="841" ht="12.75" customHeight="1" s="75"/>
-    <row r="842" ht="12.75" customHeight="1" s="75"/>
-    <row r="843" ht="12.75" customHeight="1" s="75"/>
-    <row r="844" ht="12.75" customHeight="1" s="75"/>
-    <row r="845" ht="12.75" customHeight="1" s="75"/>
-    <row r="846" ht="12.75" customHeight="1" s="75"/>
-    <row r="847" ht="12.75" customHeight="1" s="75"/>
-    <row r="848" ht="12.75" customHeight="1" s="75"/>
-    <row r="849" ht="12.75" customHeight="1" s="75"/>
-    <row r="850" ht="12.75" customHeight="1" s="75"/>
-    <row r="851" ht="12.75" customHeight="1" s="75"/>
-    <row r="852" ht="12.75" customHeight="1" s="75"/>
-    <row r="853" ht="12.75" customHeight="1" s="75"/>
-    <row r="854" ht="12.75" customHeight="1" s="75"/>
-    <row r="855" ht="12.75" customHeight="1" s="75"/>
-    <row r="856" ht="12.75" customHeight="1" s="75"/>
-    <row r="857" ht="12.75" customHeight="1" s="75"/>
-    <row r="858" ht="12.75" customHeight="1" s="75"/>
-    <row r="859" ht="12.75" customHeight="1" s="75"/>
-    <row r="860" ht="12.75" customHeight="1" s="75"/>
-    <row r="861" ht="12.75" customHeight="1" s="75"/>
-    <row r="862" ht="12.75" customHeight="1" s="75"/>
-    <row r="863" ht="12.75" customHeight="1" s="75"/>
-    <row r="864" ht="12.75" customHeight="1" s="75"/>
-    <row r="865" ht="12.75" customHeight="1" s="75"/>
-    <row r="866" ht="12.75" customHeight="1" s="75"/>
-    <row r="867" ht="12.75" customHeight="1" s="75"/>
-    <row r="868" ht="12.75" customHeight="1" s="75"/>
-    <row r="869" ht="12.75" customHeight="1" s="75"/>
-    <row r="870" ht="12.75" customHeight="1" s="75"/>
-    <row r="871" ht="12.75" customHeight="1" s="75"/>
-    <row r="872" ht="12.75" customHeight="1" s="75"/>
-    <row r="873" ht="12.75" customHeight="1" s="75"/>
-    <row r="874" ht="12.75" customHeight="1" s="75"/>
-    <row r="875" ht="12.75" customHeight="1" s="75"/>
-    <row r="876" ht="12.75" customHeight="1" s="75"/>
-    <row r="877" ht="12.75" customHeight="1" s="75"/>
-    <row r="878" ht="12.75" customHeight="1" s="75"/>
-    <row r="879" ht="12.75" customHeight="1" s="75"/>
-    <row r="880" ht="12.75" customHeight="1" s="75"/>
-    <row r="881" ht="12.75" customHeight="1" s="75"/>
-    <row r="882" ht="12.75" customHeight="1" s="75"/>
-    <row r="883" ht="12.75" customHeight="1" s="75"/>
-    <row r="884" ht="12.75" customHeight="1" s="75"/>
-    <row r="885" ht="12.75" customHeight="1" s="75"/>
-    <row r="886" ht="12.75" customHeight="1" s="75"/>
-    <row r="887" ht="12.75" customHeight="1" s="75"/>
-    <row r="888" ht="12.75" customHeight="1" s="75"/>
-    <row r="889" ht="12.75" customHeight="1" s="75"/>
-    <row r="890" ht="12.75" customHeight="1" s="75"/>
-    <row r="891" ht="12.75" customHeight="1" s="75"/>
-    <row r="892" ht="12.75" customHeight="1" s="75"/>
-    <row r="893" ht="12.75" customHeight="1" s="75"/>
-    <row r="894" ht="12.75" customHeight="1" s="75"/>
-    <row r="895" ht="12.75" customHeight="1" s="75"/>
-    <row r="896" ht="12.75" customHeight="1" s="75"/>
-    <row r="897" ht="12.75" customHeight="1" s="75"/>
-    <row r="898" ht="12.75" customHeight="1" s="75"/>
-    <row r="899" ht="12.75" customHeight="1" s="75"/>
-    <row r="900" ht="12.75" customHeight="1" s="75"/>
-    <row r="901" ht="12.75" customHeight="1" s="75"/>
-    <row r="902" ht="12.75" customHeight="1" s="75"/>
-    <row r="903" ht="12.75" customHeight="1" s="75"/>
-    <row r="904" ht="12.75" customHeight="1" s="75"/>
-    <row r="905" ht="12.75" customHeight="1" s="75"/>
-    <row r="906" ht="12.75" customHeight="1" s="75"/>
-    <row r="907" ht="12.75" customHeight="1" s="75"/>
-    <row r="908" ht="12.75" customHeight="1" s="75"/>
-    <row r="909" ht="12.75" customHeight="1" s="75"/>
-    <row r="910" ht="12.75" customHeight="1" s="75"/>
-    <row r="911" ht="12.75" customHeight="1" s="75"/>
-    <row r="912" ht="12.75" customHeight="1" s="75"/>
-    <row r="913" ht="12.75" customHeight="1" s="75"/>
-    <row r="914" ht="12.75" customHeight="1" s="75"/>
-    <row r="915" ht="12.75" customHeight="1" s="75"/>
-    <row r="916" ht="12.75" customHeight="1" s="75"/>
-    <row r="917" ht="12.75" customHeight="1" s="75"/>
-    <row r="918" ht="12.75" customHeight="1" s="75"/>
-    <row r="919" ht="12.75" customHeight="1" s="75"/>
-    <row r="920" ht="12.75" customHeight="1" s="75"/>
-    <row r="921" ht="12.75" customHeight="1" s="75"/>
-    <row r="922" ht="12.75" customHeight="1" s="75"/>
-    <row r="923" ht="12.75" customHeight="1" s="75"/>
-    <row r="924" ht="12.75" customHeight="1" s="75"/>
-    <row r="925" ht="12.75" customHeight="1" s="75"/>
-    <row r="926" ht="12.75" customHeight="1" s="75"/>
-    <row r="927" ht="12.75" customHeight="1" s="75"/>
-    <row r="928" ht="12.75" customHeight="1" s="75"/>
-    <row r="929" ht="12.75" customHeight="1" s="75"/>
-    <row r="930" ht="12.75" customHeight="1" s="75"/>
-    <row r="931" ht="12.75" customHeight="1" s="75"/>
-    <row r="932" ht="12.75" customHeight="1" s="75"/>
-    <row r="933" ht="12.75" customHeight="1" s="75"/>
-    <row r="934" ht="12.75" customHeight="1" s="75"/>
-    <row r="935" ht="12.75" customHeight="1" s="75"/>
-    <row r="936" ht="12.75" customHeight="1" s="75"/>
-    <row r="937" ht="12.75" customHeight="1" s="75"/>
-    <row r="938" ht="12.75" customHeight="1" s="75"/>
-    <row r="939" ht="12.75" customHeight="1" s="75"/>
-    <row r="940" ht="12.75" customHeight="1" s="75"/>
-    <row r="941" ht="12.75" customHeight="1" s="75"/>
-    <row r="942" ht="12.75" customHeight="1" s="75"/>
-    <row r="943" ht="12.75" customHeight="1" s="75"/>
-    <row r="944" ht="12.75" customHeight="1" s="75"/>
-    <row r="945" ht="12.75" customHeight="1" s="75"/>
-    <row r="946" ht="12.75" customHeight="1" s="75"/>
-    <row r="947" ht="12.75" customHeight="1" s="75"/>
-    <row r="948" ht="12.75" customHeight="1" s="75"/>
-    <row r="949" ht="12.75" customHeight="1" s="75"/>
-    <row r="950" ht="12.75" customHeight="1" s="75"/>
-    <row r="951" ht="12.75" customHeight="1" s="75"/>
-    <row r="952" ht="12.75" customHeight="1" s="75"/>
-    <row r="953" ht="12.75" customHeight="1" s="75"/>
-    <row r="954" ht="12.75" customHeight="1" s="75"/>
-    <row r="955" ht="12.75" customHeight="1" s="75"/>
-    <row r="956" ht="12.75" customHeight="1" s="75"/>
-    <row r="957" ht="12.75" customHeight="1" s="75"/>
-    <row r="958" ht="12.75" customHeight="1" s="75"/>
-    <row r="959" ht="12.75" customHeight="1" s="75"/>
-    <row r="960" ht="12.75" customHeight="1" s="75"/>
-    <row r="961" ht="12.75" customHeight="1" s="75"/>
-    <row r="962" ht="12.75" customHeight="1" s="75"/>
-    <row r="963" ht="12.75" customHeight="1" s="75"/>
-    <row r="964" ht="12.75" customHeight="1" s="75"/>
-    <row r="965" ht="12.75" customHeight="1" s="75"/>
-    <row r="966" ht="12.75" customHeight="1" s="75"/>
-    <row r="967" ht="12.75" customHeight="1" s="75"/>
-    <row r="968" ht="12.75" customHeight="1" s="75"/>
-    <row r="969" ht="12.75" customHeight="1" s="75"/>
-    <row r="970" ht="12.75" customHeight="1" s="75"/>
-    <row r="971" ht="12.75" customHeight="1" s="75"/>
-    <row r="972" ht="12.75" customHeight="1" s="75"/>
-    <row r="973" ht="12.75" customHeight="1" s="75"/>
-    <row r="974" ht="12.75" customHeight="1" s="75"/>
-    <row r="975" ht="12.75" customHeight="1" s="75"/>
-    <row r="976" ht="12.75" customHeight="1" s="75"/>
-    <row r="977" ht="12.75" customHeight="1" s="75"/>
-    <row r="978" ht="12.75" customHeight="1" s="75"/>
-    <row r="979" ht="12.75" customHeight="1" s="75"/>
-    <row r="980" ht="12.75" customHeight="1" s="75"/>
-    <row r="981" ht="12.75" customHeight="1" s="75"/>
-    <row r="982" ht="12.75" customHeight="1" s="75"/>
-    <row r="983" ht="12.75" customHeight="1" s="75"/>
-    <row r="984" ht="12.75" customHeight="1" s="75"/>
-    <row r="985" ht="12.75" customHeight="1" s="75"/>
-    <row r="986" ht="12.75" customHeight="1" s="75"/>
-    <row r="987" ht="12.75" customHeight="1" s="75"/>
-    <row r="988" ht="12.75" customHeight="1" s="75"/>
-    <row r="989" ht="12.75" customHeight="1" s="75"/>
-    <row r="990" ht="12.75" customHeight="1" s="75"/>
-    <row r="991" ht="12.75" customHeight="1" s="75"/>
-    <row r="992" ht="12.75" customHeight="1" s="75"/>
-    <row r="993" ht="12.75" customHeight="1" s="75"/>
-    <row r="994" ht="12.75" customHeight="1" s="75"/>
-    <row r="995" ht="12.75" customHeight="1" s="75"/>
-    <row r="996" ht="12.75" customHeight="1" s="75"/>
-    <row r="997" ht="12.75" customHeight="1" s="75"/>
-    <row r="998" ht="12.75" customHeight="1" s="75"/>
-    <row r="999" ht="12.75" customHeight="1" s="75"/>
-    <row r="1000" ht="12.75" customHeight="1" s="75"/>
+    <row r="39" ht="12.75" customHeight="1" s="78"/>
+    <row r="40" ht="12.75" customHeight="1" s="78"/>
+    <row r="41" ht="12.75" customHeight="1" s="78"/>
+    <row r="42" ht="12.75" customHeight="1" s="78"/>
+    <row r="43" ht="12.75" customHeight="1" s="78"/>
+    <row r="44" ht="12.75" customHeight="1" s="78"/>
+    <row r="45" ht="12.75" customHeight="1" s="78"/>
+    <row r="46" ht="12.75" customHeight="1" s="78"/>
+    <row r="47" ht="12.75" customHeight="1" s="78"/>
+    <row r="48" ht="12.75" customHeight="1" s="78"/>
+    <row r="49" ht="12.75" customHeight="1" s="78"/>
+    <row r="50" ht="12.75" customHeight="1" s="78"/>
+    <row r="51" ht="12.75" customHeight="1" s="78"/>
+    <row r="52" ht="12.75" customHeight="1" s="78"/>
+    <row r="53" ht="12.75" customHeight="1" s="78"/>
+    <row r="54" ht="12.75" customHeight="1" s="78"/>
+    <row r="55" ht="12.75" customHeight="1" s="78"/>
+    <row r="56" ht="12.75" customHeight="1" s="78"/>
+    <row r="57" ht="12.75" customHeight="1" s="78"/>
+    <row r="58" ht="12.75" customHeight="1" s="78"/>
+    <row r="59" ht="12.75" customHeight="1" s="78"/>
+    <row r="60" ht="12.75" customHeight="1" s="78"/>
+    <row r="61" ht="12.75" customHeight="1" s="78"/>
+    <row r="62" ht="12.75" customHeight="1" s="78"/>
+    <row r="63" ht="12.75" customHeight="1" s="78"/>
+    <row r="64" ht="12.75" customHeight="1" s="78"/>
+    <row r="65" ht="12.75" customHeight="1" s="78"/>
+    <row r="66" ht="12.75" customHeight="1" s="78"/>
+    <row r="67" ht="12.75" customHeight="1" s="78"/>
+    <row r="68" ht="12.75" customHeight="1" s="78"/>
+    <row r="69" ht="12.75" customHeight="1" s="78"/>
+    <row r="70" ht="12.75" customHeight="1" s="78"/>
+    <row r="71" ht="12.75" customHeight="1" s="78"/>
+    <row r="72" ht="12.75" customHeight="1" s="78"/>
+    <row r="73" ht="12.75" customHeight="1" s="78"/>
+    <row r="74" ht="12.75" customHeight="1" s="78"/>
+    <row r="75" ht="12.75" customHeight="1" s="78"/>
+    <row r="76" ht="12.75" customHeight="1" s="78"/>
+    <row r="77" ht="12.75" customHeight="1" s="78"/>
+    <row r="78" ht="12.75" customHeight="1" s="78"/>
+    <row r="79" ht="12.75" customHeight="1" s="78"/>
+    <row r="80" ht="12.75" customHeight="1" s="78"/>
+    <row r="81" ht="12.75" customHeight="1" s="78"/>
+    <row r="82" ht="12.75" customHeight="1" s="78"/>
+    <row r="83" ht="12.75" customHeight="1" s="78"/>
+    <row r="84" ht="12.75" customHeight="1" s="78"/>
+    <row r="85" ht="12.75" customHeight="1" s="78"/>
+    <row r="86" ht="12.75" customHeight="1" s="78"/>
+    <row r="87" ht="12.75" customHeight="1" s="78"/>
+    <row r="88" ht="12.75" customHeight="1" s="78"/>
+    <row r="89" ht="12.75" customHeight="1" s="78"/>
+    <row r="90" ht="12.75" customHeight="1" s="78"/>
+    <row r="91" ht="12.75" customHeight="1" s="78"/>
+    <row r="92" ht="12.75" customHeight="1" s="78"/>
+    <row r="93" ht="12.75" customHeight="1" s="78"/>
+    <row r="94" ht="12.75" customHeight="1" s="78"/>
+    <row r="95" ht="12.75" customHeight="1" s="78"/>
+    <row r="96" ht="12.75" customHeight="1" s="78"/>
+    <row r="97" ht="12.75" customHeight="1" s="78"/>
+    <row r="98" ht="12.75" customHeight="1" s="78"/>
+    <row r="99" ht="12.75" customHeight="1" s="78"/>
+    <row r="100" ht="12.75" customHeight="1" s="78"/>
+    <row r="101" ht="12.75" customHeight="1" s="78"/>
+    <row r="102" ht="12.75" customHeight="1" s="78"/>
+    <row r="103" ht="12.75" customHeight="1" s="78"/>
+    <row r="104" ht="12.75" customHeight="1" s="78"/>
+    <row r="105" ht="12.75" customHeight="1" s="78"/>
+    <row r="106" ht="12.75" customHeight="1" s="78"/>
+    <row r="107" ht="12.75" customHeight="1" s="78"/>
+    <row r="108" ht="12.75" customHeight="1" s="78"/>
+    <row r="109" ht="12.75" customHeight="1" s="78"/>
+    <row r="110" ht="12.75" customHeight="1" s="78"/>
+    <row r="111" ht="12.75" customHeight="1" s="78"/>
+    <row r="112" ht="12.75" customHeight="1" s="78"/>
+    <row r="113" ht="12.75" customHeight="1" s="78"/>
+    <row r="114" ht="12.75" customHeight="1" s="78"/>
+    <row r="115" ht="12.75" customHeight="1" s="78"/>
+    <row r="116" ht="12.75" customHeight="1" s="78"/>
+    <row r="117" ht="12.75" customHeight="1" s="78"/>
+    <row r="118" ht="12.75" customHeight="1" s="78"/>
+    <row r="119" ht="12.75" customHeight="1" s="78"/>
+    <row r="120" ht="12.75" customHeight="1" s="78"/>
+    <row r="121" ht="12.75" customHeight="1" s="78"/>
+    <row r="122" ht="12.75" customHeight="1" s="78"/>
+    <row r="123" ht="12.75" customHeight="1" s="78"/>
+    <row r="124" ht="12.75" customHeight="1" s="78"/>
+    <row r="125" ht="12.75" customHeight="1" s="78"/>
+    <row r="126" ht="12.75" customHeight="1" s="78"/>
+    <row r="127" ht="12.75" customHeight="1" s="78"/>
+    <row r="128" ht="12.75" customHeight="1" s="78"/>
+    <row r="129" ht="12.75" customHeight="1" s="78"/>
+    <row r="130" ht="12.75" customHeight="1" s="78"/>
+    <row r="131" ht="12.75" customHeight="1" s="78"/>
+    <row r="132" ht="12.75" customHeight="1" s="78"/>
+    <row r="133" ht="12.75" customHeight="1" s="78"/>
+    <row r="134" ht="12.75" customHeight="1" s="78"/>
+    <row r="135" ht="12.75" customHeight="1" s="78"/>
+    <row r="136" ht="12.75" customHeight="1" s="78"/>
+    <row r="137" ht="12.75" customHeight="1" s="78"/>
+    <row r="138" ht="12.75" customHeight="1" s="78"/>
+    <row r="139" ht="12.75" customHeight="1" s="78"/>
+    <row r="140" ht="12.75" customHeight="1" s="78"/>
+    <row r="141" ht="12.75" customHeight="1" s="78"/>
+    <row r="142" ht="12.75" customHeight="1" s="78"/>
+    <row r="143" ht="12.75" customHeight="1" s="78"/>
+    <row r="144" ht="12.75" customHeight="1" s="78"/>
+    <row r="145" ht="12.75" customHeight="1" s="78"/>
+    <row r="146" ht="12.75" customHeight="1" s="78"/>
+    <row r="147" ht="12.75" customHeight="1" s="78"/>
+    <row r="148" ht="12.75" customHeight="1" s="78"/>
+    <row r="149" ht="12.75" customHeight="1" s="78"/>
+    <row r="150" ht="12.75" customHeight="1" s="78"/>
+    <row r="151" ht="12.75" customHeight="1" s="78"/>
+    <row r="152" ht="12.75" customHeight="1" s="78"/>
+    <row r="153" ht="12.75" customHeight="1" s="78"/>
+    <row r="154" ht="12.75" customHeight="1" s="78"/>
+    <row r="155" ht="12.75" customHeight="1" s="78"/>
+    <row r="156" ht="12.75" customHeight="1" s="78"/>
+    <row r="157" ht="12.75" customHeight="1" s="78"/>
+    <row r="158" ht="12.75" customHeight="1" s="78"/>
+    <row r="159" ht="12.75" customHeight="1" s="78"/>
+    <row r="160" ht="12.75" customHeight="1" s="78"/>
+    <row r="161" ht="12.75" customHeight="1" s="78"/>
+    <row r="162" ht="12.75" customHeight="1" s="78"/>
+    <row r="163" ht="12.75" customHeight="1" s="78"/>
+    <row r="164" ht="12.75" customHeight="1" s="78"/>
+    <row r="165" ht="12.75" customHeight="1" s="78"/>
+    <row r="166" ht="12.75" customHeight="1" s="78"/>
+    <row r="167" ht="12.75" customHeight="1" s="78"/>
+    <row r="168" ht="12.75" customHeight="1" s="78"/>
+    <row r="169" ht="12.75" customHeight="1" s="78"/>
+    <row r="170" ht="12.75" customHeight="1" s="78"/>
+    <row r="171" ht="12.75" customHeight="1" s="78"/>
+    <row r="172" ht="12.75" customHeight="1" s="78"/>
+    <row r="173" ht="12.75" customHeight="1" s="78"/>
+    <row r="174" ht="12.75" customHeight="1" s="78"/>
+    <row r="175" ht="12.75" customHeight="1" s="78"/>
+    <row r="176" ht="12.75" customHeight="1" s="78"/>
+    <row r="177" ht="12.75" customHeight="1" s="78"/>
+    <row r="178" ht="12.75" customHeight="1" s="78"/>
+    <row r="179" ht="12.75" customHeight="1" s="78"/>
+    <row r="180" ht="12.75" customHeight="1" s="78"/>
+    <row r="181" ht="12.75" customHeight="1" s="78"/>
+    <row r="182" ht="12.75" customHeight="1" s="78"/>
+    <row r="183" ht="12.75" customHeight="1" s="78"/>
+    <row r="184" ht="12.75" customHeight="1" s="78"/>
+    <row r="185" ht="12.75" customHeight="1" s="78"/>
+    <row r="186" ht="12.75" customHeight="1" s="78"/>
+    <row r="187" ht="12.75" customHeight="1" s="78"/>
+    <row r="188" ht="12.75" customHeight="1" s="78"/>
+    <row r="189" ht="12.75" customHeight="1" s="78"/>
+    <row r="190" ht="12.75" customHeight="1" s="78"/>
+    <row r="191" ht="12.75" customHeight="1" s="78"/>
+    <row r="192" ht="12.75" customHeight="1" s="78"/>
+    <row r="193" ht="12.75" customHeight="1" s="78"/>
+    <row r="194" ht="12.75" customHeight="1" s="78"/>
+    <row r="195" ht="12.75" customHeight="1" s="78"/>
+    <row r="196" ht="12.75" customHeight="1" s="78"/>
+    <row r="197" ht="12.75" customHeight="1" s="78"/>
+    <row r="198" ht="12.75" customHeight="1" s="78"/>
+    <row r="199" ht="12.75" customHeight="1" s="78"/>
+    <row r="200" ht="12.75" customHeight="1" s="78"/>
+    <row r="201" ht="12.75" customHeight="1" s="78"/>
+    <row r="202" ht="12.75" customHeight="1" s="78"/>
+    <row r="203" ht="12.75" customHeight="1" s="78"/>
+    <row r="204" ht="12.75" customHeight="1" s="78"/>
+    <row r="205" ht="12.75" customHeight="1" s="78"/>
+    <row r="206" ht="12.75" customHeight="1" s="78"/>
+    <row r="207" ht="12.75" customHeight="1" s="78"/>
+    <row r="208" ht="12.75" customHeight="1" s="78"/>
+    <row r="209" ht="12.75" customHeight="1" s="78"/>
+    <row r="210" ht="12.75" customHeight="1" s="78"/>
+    <row r="211" ht="12.75" customHeight="1" s="78"/>
+    <row r="212" ht="12.75" customHeight="1" s="78"/>
+    <row r="213" ht="12.75" customHeight="1" s="78"/>
+    <row r="214" ht="12.75" customHeight="1" s="78"/>
+    <row r="215" ht="12.75" customHeight="1" s="78"/>
+    <row r="216" ht="12.75" customHeight="1" s="78"/>
+    <row r="217" ht="12.75" customHeight="1" s="78"/>
+    <row r="218" ht="12.75" customHeight="1" s="78"/>
+    <row r="219" ht="12.75" customHeight="1" s="78"/>
+    <row r="220" ht="12.75" customHeight="1" s="78"/>
+    <row r="221" ht="12.75" customHeight="1" s="78"/>
+    <row r="222" ht="12.75" customHeight="1" s="78"/>
+    <row r="223" ht="12.75" customHeight="1" s="78"/>
+    <row r="224" ht="12.75" customHeight="1" s="78"/>
+    <row r="225" ht="12.75" customHeight="1" s="78"/>
+    <row r="226" ht="12.75" customHeight="1" s="78"/>
+    <row r="227" ht="12.75" customHeight="1" s="78"/>
+    <row r="228" ht="12.75" customHeight="1" s="78"/>
+    <row r="229" ht="12.75" customHeight="1" s="78"/>
+    <row r="230" ht="12.75" customHeight="1" s="78"/>
+    <row r="231" ht="12.75" customHeight="1" s="78"/>
+    <row r="232" ht="12.75" customHeight="1" s="78"/>
+    <row r="233" ht="12.75" customHeight="1" s="78"/>
+    <row r="234" ht="12.75" customHeight="1" s="78"/>
+    <row r="235" ht="12.75" customHeight="1" s="78"/>
+    <row r="236" ht="12.75" customHeight="1" s="78"/>
+    <row r="237" ht="12.75" customHeight="1" s="78"/>
+    <row r="238" ht="12.75" customHeight="1" s="78"/>
+    <row r="239" ht="12.75" customHeight="1" s="78"/>
+    <row r="240" ht="12.75" customHeight="1" s="78"/>
+    <row r="241" ht="12.75" customHeight="1" s="78"/>
+    <row r="242" ht="12.75" customHeight="1" s="78"/>
+    <row r="243" ht="12.75" customHeight="1" s="78"/>
+    <row r="244" ht="12.75" customHeight="1" s="78"/>
+    <row r="245" ht="12.75" customHeight="1" s="78"/>
+    <row r="246" ht="12.75" customHeight="1" s="78"/>
+    <row r="247" ht="12.75" customHeight="1" s="78"/>
+    <row r="248" ht="12.75" customHeight="1" s="78"/>
+    <row r="249" ht="12.75" customHeight="1" s="78"/>
+    <row r="250" ht="12.75" customHeight="1" s="78"/>
+    <row r="251" ht="12.75" customHeight="1" s="78"/>
+    <row r="252" ht="12.75" customHeight="1" s="78"/>
+    <row r="253" ht="12.75" customHeight="1" s="78"/>
+    <row r="254" ht="12.75" customHeight="1" s="78"/>
+    <row r="255" ht="12.75" customHeight="1" s="78"/>
+    <row r="256" ht="12.75" customHeight="1" s="78"/>
+    <row r="257" ht="12.75" customHeight="1" s="78"/>
+    <row r="258" ht="12.75" customHeight="1" s="78"/>
+    <row r="259" ht="12.75" customHeight="1" s="78"/>
+    <row r="260" ht="12.75" customHeight="1" s="78"/>
+    <row r="261" ht="12.75" customHeight="1" s="78"/>
+    <row r="262" ht="12.75" customHeight="1" s="78"/>
+    <row r="263" ht="12.75" customHeight="1" s="78"/>
+    <row r="264" ht="12.75" customHeight="1" s="78"/>
+    <row r="265" ht="12.75" customHeight="1" s="78"/>
+    <row r="266" ht="12.75" customHeight="1" s="78"/>
+    <row r="267" ht="12.75" customHeight="1" s="78"/>
+    <row r="268" ht="12.75" customHeight="1" s="78"/>
+    <row r="269" ht="12.75" customHeight="1" s="78"/>
+    <row r="270" ht="12.75" customHeight="1" s="78"/>
+    <row r="271" ht="12.75" customHeight="1" s="78"/>
+    <row r="272" ht="12.75" customHeight="1" s="78"/>
+    <row r="273" ht="12.75" customHeight="1" s="78"/>
+    <row r="274" ht="12.75" customHeight="1" s="78"/>
+    <row r="275" ht="12.75" customHeight="1" s="78"/>
+    <row r="276" ht="12.75" customHeight="1" s="78"/>
+    <row r="277" ht="12.75" customHeight="1" s="78"/>
+    <row r="278" ht="12.75" customHeight="1" s="78"/>
+    <row r="279" ht="12.75" customHeight="1" s="78"/>
+    <row r="280" ht="12.75" customHeight="1" s="78"/>
+    <row r="281" ht="12.75" customHeight="1" s="78"/>
+    <row r="282" ht="12.75" customHeight="1" s="78"/>
+    <row r="283" ht="12.75" customHeight="1" s="78"/>
+    <row r="284" ht="12.75" customHeight="1" s="78"/>
+    <row r="285" ht="12.75" customHeight="1" s="78"/>
+    <row r="286" ht="12.75" customHeight="1" s="78"/>
+    <row r="287" ht="12.75" customHeight="1" s="78"/>
+    <row r="288" ht="12.75" customHeight="1" s="78"/>
+    <row r="289" ht="12.75" customHeight="1" s="78"/>
+    <row r="290" ht="12.75" customHeight="1" s="78"/>
+    <row r="291" ht="12.75" customHeight="1" s="78"/>
+    <row r="292" ht="12.75" customHeight="1" s="78"/>
+    <row r="293" ht="12.75" customHeight="1" s="78"/>
+    <row r="294" ht="12.75" customHeight="1" s="78"/>
+    <row r="295" ht="12.75" customHeight="1" s="78"/>
+    <row r="296" ht="12.75" customHeight="1" s="78"/>
+    <row r="297" ht="12.75" customHeight="1" s="78"/>
+    <row r="298" ht="12.75" customHeight="1" s="78"/>
+    <row r="299" ht="12.75" customHeight="1" s="78"/>
+    <row r="300" ht="12.75" customHeight="1" s="78"/>
+    <row r="301" ht="12.75" customHeight="1" s="78"/>
+    <row r="302" ht="12.75" customHeight="1" s="78"/>
+    <row r="303" ht="12.75" customHeight="1" s="78"/>
+    <row r="304" ht="12.75" customHeight="1" s="78"/>
+    <row r="305" ht="12.75" customHeight="1" s="78"/>
+    <row r="306" ht="12.75" customHeight="1" s="78"/>
+    <row r="307" ht="12.75" customHeight="1" s="78"/>
+    <row r="308" ht="12.75" customHeight="1" s="78"/>
+    <row r="309" ht="12.75" customHeight="1" s="78"/>
+    <row r="310" ht="12.75" customHeight="1" s="78"/>
+    <row r="311" ht="12.75" customHeight="1" s="78"/>
+    <row r="312" ht="12.75" customHeight="1" s="78"/>
+    <row r="313" ht="12.75" customHeight="1" s="78"/>
+    <row r="314" ht="12.75" customHeight="1" s="78"/>
+    <row r="315" ht="12.75" customHeight="1" s="78"/>
+    <row r="316" ht="12.75" customHeight="1" s="78"/>
+    <row r="317" ht="12.75" customHeight="1" s="78"/>
+    <row r="318" ht="12.75" customHeight="1" s="78"/>
+    <row r="319" ht="12.75" customHeight="1" s="78"/>
+    <row r="320" ht="12.75" customHeight="1" s="78"/>
+    <row r="321" ht="12.75" customHeight="1" s="78"/>
+    <row r="322" ht="12.75" customHeight="1" s="78"/>
+    <row r="323" ht="12.75" customHeight="1" s="78"/>
+    <row r="324" ht="12.75" customHeight="1" s="78"/>
+    <row r="325" ht="12.75" customHeight="1" s="78"/>
+    <row r="326" ht="12.75" customHeight="1" s="78"/>
+    <row r="327" ht="12.75" customHeight="1" s="78"/>
+    <row r="328" ht="12.75" customHeight="1" s="78"/>
+    <row r="329" ht="12.75" customHeight="1" s="78"/>
+    <row r="330" ht="12.75" customHeight="1" s="78"/>
+    <row r="331" ht="12.75" customHeight="1" s="78"/>
+    <row r="332" ht="12.75" customHeight="1" s="78"/>
+    <row r="333" ht="12.75" customHeight="1" s="78"/>
+    <row r="334" ht="12.75" customHeight="1" s="78"/>
+    <row r="335" ht="12.75" customHeight="1" s="78"/>
+    <row r="336" ht="12.75" customHeight="1" s="78"/>
+    <row r="337" ht="12.75" customHeight="1" s="78"/>
+    <row r="338" ht="12.75" customHeight="1" s="78"/>
+    <row r="339" ht="12.75" customHeight="1" s="78"/>
+    <row r="340" ht="12.75" customHeight="1" s="78"/>
+    <row r="341" ht="12.75" customHeight="1" s="78"/>
+    <row r="342" ht="12.75" customHeight="1" s="78"/>
+    <row r="343" ht="12.75" customHeight="1" s="78"/>
+    <row r="344" ht="12.75" customHeight="1" s="78"/>
+    <row r="345" ht="12.75" customHeight="1" s="78"/>
+    <row r="346" ht="12.75" customHeight="1" s="78"/>
+    <row r="347" ht="12.75" customHeight="1" s="78"/>
+    <row r="348" ht="12.75" customHeight="1" s="78"/>
+    <row r="349" ht="12.75" customHeight="1" s="78"/>
+    <row r="350" ht="12.75" customHeight="1" s="78"/>
+    <row r="351" ht="12.75" customHeight="1" s="78"/>
+    <row r="352" ht="12.75" customHeight="1" s="78"/>
+    <row r="353" ht="12.75" customHeight="1" s="78"/>
+    <row r="354" ht="12.75" customHeight="1" s="78"/>
+    <row r="355" ht="12.75" customHeight="1" s="78"/>
+    <row r="356" ht="12.75" customHeight="1" s="78"/>
+    <row r="357" ht="12.75" customHeight="1" s="78"/>
+    <row r="358" ht="12.75" customHeight="1" s="78"/>
+    <row r="359" ht="12.75" customHeight="1" s="78"/>
+    <row r="360" ht="12.75" customHeight="1" s="78"/>
+    <row r="361" ht="12.75" customHeight="1" s="78"/>
+    <row r="362" ht="12.75" customHeight="1" s="78"/>
+    <row r="363" ht="12.75" customHeight="1" s="78"/>
+    <row r="364" ht="12.75" customHeight="1" s="78"/>
+    <row r="365" ht="12.75" customHeight="1" s="78"/>
+    <row r="366" ht="12.75" customHeight="1" s="78"/>
+    <row r="367" ht="12.75" customHeight="1" s="78"/>
+    <row r="368" ht="12.75" customHeight="1" s="78"/>
+    <row r="369" ht="12.75" customHeight="1" s="78"/>
+    <row r="370" ht="12.75" customHeight="1" s="78"/>
+    <row r="371" ht="12.75" customHeight="1" s="78"/>
+    <row r="372" ht="12.75" customHeight="1" s="78"/>
+    <row r="373" ht="12.75" customHeight="1" s="78"/>
+    <row r="374" ht="12.75" customHeight="1" s="78"/>
+    <row r="375" ht="12.75" customHeight="1" s="78"/>
+    <row r="376" ht="12.75" customHeight="1" s="78"/>
+    <row r="377" ht="12.75" customHeight="1" s="78"/>
+    <row r="378" ht="12.75" customHeight="1" s="78"/>
+    <row r="379" ht="12.75" customHeight="1" s="78"/>
+    <row r="380" ht="12.75" customHeight="1" s="78"/>
+    <row r="381" ht="12.75" customHeight="1" s="78"/>
+    <row r="382" ht="12.75" customHeight="1" s="78"/>
+    <row r="383" ht="12.75" customHeight="1" s="78"/>
+    <row r="384" ht="12.75" customHeight="1" s="78"/>
+    <row r="385" ht="12.75" customHeight="1" s="78"/>
+    <row r="386" ht="12.75" customHeight="1" s="78"/>
+    <row r="387" ht="12.75" customHeight="1" s="78"/>
+    <row r="388" ht="12.75" customHeight="1" s="78"/>
+    <row r="389" ht="12.75" customHeight="1" s="78"/>
+    <row r="390" ht="12.75" customHeight="1" s="78"/>
+    <row r="391" ht="12.75" customHeight="1" s="78"/>
+    <row r="392" ht="12.75" customHeight="1" s="78"/>
+    <row r="393" ht="12.75" customHeight="1" s="78"/>
+    <row r="394" ht="12.75" customHeight="1" s="78"/>
+    <row r="395" ht="12.75" customHeight="1" s="78"/>
+    <row r="396" ht="12.75" customHeight="1" s="78"/>
+    <row r="397" ht="12.75" customHeight="1" s="78"/>
+    <row r="398" ht="12.75" customHeight="1" s="78"/>
+    <row r="399" ht="12.75" customHeight="1" s="78"/>
+    <row r="400" ht="12.75" customHeight="1" s="78"/>
+    <row r="401" ht="12.75" customHeight="1" s="78"/>
+    <row r="402" ht="12.75" customHeight="1" s="78"/>
+    <row r="403" ht="12.75" customHeight="1" s="78"/>
+    <row r="404" ht="12.75" customHeight="1" s="78"/>
+    <row r="405" ht="12.75" customHeight="1" s="78"/>
+    <row r="406" ht="12.75" customHeight="1" s="78"/>
+    <row r="407" ht="12.75" customHeight="1" s="78"/>
+    <row r="408" ht="12.75" customHeight="1" s="78"/>
+    <row r="409" ht="12.75" customHeight="1" s="78"/>
+    <row r="410" ht="12.75" customHeight="1" s="78"/>
+    <row r="411" ht="12.75" customHeight="1" s="78"/>
+    <row r="412" ht="12.75" customHeight="1" s="78"/>
+    <row r="413" ht="12.75" customHeight="1" s="78"/>
+    <row r="414" ht="12.75" customHeight="1" s="78"/>
+    <row r="415" ht="12.75" customHeight="1" s="78"/>
+    <row r="416" ht="12.75" customHeight="1" s="78"/>
+    <row r="417" ht="12.75" customHeight="1" s="78"/>
+    <row r="418" ht="12.75" customHeight="1" s="78"/>
+    <row r="419" ht="12.75" customHeight="1" s="78"/>
+    <row r="420" ht="12.75" customHeight="1" s="78"/>
+    <row r="421" ht="12.75" customHeight="1" s="78"/>
+    <row r="422" ht="12.75" customHeight="1" s="78"/>
+    <row r="423" ht="12.75" customHeight="1" s="78"/>
+    <row r="424" ht="12.75" customHeight="1" s="78"/>
+    <row r="425" ht="12.75" customHeight="1" s="78"/>
+    <row r="426" ht="12.75" customHeight="1" s="78"/>
+    <row r="427" ht="12.75" customHeight="1" s="78"/>
+    <row r="428" ht="12.75" customHeight="1" s="78"/>
+    <row r="429" ht="12.75" customHeight="1" s="78"/>
+    <row r="430" ht="12.75" customHeight="1" s="78"/>
+    <row r="431" ht="12.75" customHeight="1" s="78"/>
+    <row r="432" ht="12.75" customHeight="1" s="78"/>
+    <row r="433" ht="12.75" customHeight="1" s="78"/>
+    <row r="434" ht="12.75" customHeight="1" s="78"/>
+    <row r="435" ht="12.75" customHeight="1" s="78"/>
+    <row r="436" ht="12.75" customHeight="1" s="78"/>
+    <row r="437" ht="12.75" customHeight="1" s="78"/>
+    <row r="438" ht="12.75" customHeight="1" s="78"/>
+    <row r="439" ht="12.75" customHeight="1" s="78"/>
+    <row r="440" ht="12.75" customHeight="1" s="78"/>
+    <row r="441" ht="12.75" customHeight="1" s="78"/>
+    <row r="442" ht="12.75" customHeight="1" s="78"/>
+    <row r="443" ht="12.75" customHeight="1" s="78"/>
+    <row r="444" ht="12.75" customHeight="1" s="78"/>
+    <row r="445" ht="12.75" customHeight="1" s="78"/>
+    <row r="446" ht="12.75" customHeight="1" s="78"/>
+    <row r="447" ht="12.75" customHeight="1" s="78"/>
+    <row r="448" ht="12.75" customHeight="1" s="78"/>
+    <row r="449" ht="12.75" customHeight="1" s="78"/>
+    <row r="450" ht="12.75" customHeight="1" s="78"/>
+    <row r="451" ht="12.75" customHeight="1" s="78"/>
+    <row r="452" ht="12.75" customHeight="1" s="78"/>
+    <row r="453" ht="12.75" customHeight="1" s="78"/>
+    <row r="454" ht="12.75" customHeight="1" s="78"/>
+    <row r="455" ht="12.75" customHeight="1" s="78"/>
+    <row r="456" ht="12.75" customHeight="1" s="78"/>
+    <row r="457" ht="12.75" customHeight="1" s="78"/>
+    <row r="458" ht="12.75" customHeight="1" s="78"/>
+    <row r="459" ht="12.75" customHeight="1" s="78"/>
+    <row r="460" ht="12.75" customHeight="1" s="78"/>
+    <row r="461" ht="12.75" customHeight="1" s="78"/>
+    <row r="462" ht="12.75" customHeight="1" s="78"/>
+    <row r="463" ht="12.75" customHeight="1" s="78"/>
+    <row r="464" ht="12.75" customHeight="1" s="78"/>
+    <row r="465" ht="12.75" customHeight="1" s="78"/>
+    <row r="466" ht="12.75" customHeight="1" s="78"/>
+    <row r="467" ht="12.75" customHeight="1" s="78"/>
+    <row r="468" ht="12.75" customHeight="1" s="78"/>
+    <row r="469" ht="12.75" customHeight="1" s="78"/>
+    <row r="470" ht="12.75" customHeight="1" s="78"/>
+    <row r="471" ht="12.75" customHeight="1" s="78"/>
+    <row r="472" ht="12.75" customHeight="1" s="78"/>
+    <row r="473" ht="12.75" customHeight="1" s="78"/>
+    <row r="474" ht="12.75" customHeight="1" s="78"/>
+    <row r="475" ht="12.75" customHeight="1" s="78"/>
+    <row r="476" ht="12.75" customHeight="1" s="78"/>
+    <row r="477" ht="12.75" customHeight="1" s="78"/>
+    <row r="478" ht="12.75" customHeight="1" s="78"/>
+    <row r="479" ht="12.75" customHeight="1" s="78"/>
+    <row r="480" ht="12.75" customHeight="1" s="78"/>
+    <row r="481" ht="12.75" customHeight="1" s="78"/>
+    <row r="482" ht="12.75" customHeight="1" s="78"/>
+    <row r="483" ht="12.75" customHeight="1" s="78"/>
+    <row r="484" ht="12.75" customHeight="1" s="78"/>
+    <row r="485" ht="12.75" customHeight="1" s="78"/>
+    <row r="486" ht="12.75" customHeight="1" s="78"/>
+    <row r="487" ht="12.75" customHeight="1" s="78"/>
+    <row r="488" ht="12.75" customHeight="1" s="78"/>
+    <row r="489" ht="12.75" customHeight="1" s="78"/>
+    <row r="490" ht="12.75" customHeight="1" s="78"/>
+    <row r="491" ht="12.75" customHeight="1" s="78"/>
+    <row r="492" ht="12.75" customHeight="1" s="78"/>
+    <row r="493" ht="12.75" customHeight="1" s="78"/>
+    <row r="494" ht="12.75" customHeight="1" s="78"/>
+    <row r="495" ht="12.75" customHeight="1" s="78"/>
+    <row r="496" ht="12.75" customHeight="1" s="78"/>
+    <row r="497" ht="12.75" customHeight="1" s="78"/>
+    <row r="498" ht="12.75" customHeight="1" s="78"/>
+    <row r="499" ht="12.75" customHeight="1" s="78"/>
+    <row r="500" ht="12.75" customHeight="1" s="78"/>
+    <row r="501" ht="12.75" customHeight="1" s="78"/>
+    <row r="502" ht="12.75" customHeight="1" s="78"/>
+    <row r="503" ht="12.75" customHeight="1" s="78"/>
+    <row r="504" ht="12.75" customHeight="1" s="78"/>
+    <row r="505" ht="12.75" customHeight="1" s="78"/>
+    <row r="506" ht="12.75" customHeight="1" s="78"/>
+    <row r="507" ht="12.75" customHeight="1" s="78"/>
+    <row r="508" ht="12.75" customHeight="1" s="78"/>
+    <row r="509" ht="12.75" customHeight="1" s="78"/>
+    <row r="510" ht="12.75" customHeight="1" s="78"/>
+    <row r="511" ht="12.75" customHeight="1" s="78"/>
+    <row r="512" ht="12.75" customHeight="1" s="78"/>
+    <row r="513" ht="12.75" customHeight="1" s="78"/>
+    <row r="514" ht="12.75" customHeight="1" s="78"/>
+    <row r="515" ht="12.75" customHeight="1" s="78"/>
+    <row r="516" ht="12.75" customHeight="1" s="78"/>
+    <row r="517" ht="12.75" customHeight="1" s="78"/>
+    <row r="518" ht="12.75" customHeight="1" s="78"/>
+    <row r="519" ht="12.75" customHeight="1" s="78"/>
+    <row r="520" ht="12.75" customHeight="1" s="78"/>
+    <row r="521" ht="12.75" customHeight="1" s="78"/>
+    <row r="522" ht="12.75" customHeight="1" s="78"/>
+    <row r="523" ht="12.75" customHeight="1" s="78"/>
+    <row r="524" ht="12.75" customHeight="1" s="78"/>
+    <row r="525" ht="12.75" customHeight="1" s="78"/>
+    <row r="526" ht="12.75" customHeight="1" s="78"/>
+    <row r="527" ht="12.75" customHeight="1" s="78"/>
+    <row r="528" ht="12.75" customHeight="1" s="78"/>
+    <row r="529" ht="12.75" customHeight="1" s="78"/>
+    <row r="530" ht="12.75" customHeight="1" s="78"/>
+    <row r="531" ht="12.75" customHeight="1" s="78"/>
+    <row r="532" ht="12.75" customHeight="1" s="78"/>
+    <row r="533" ht="12.75" customHeight="1" s="78"/>
+    <row r="534" ht="12.75" customHeight="1" s="78"/>
+    <row r="535" ht="12.75" customHeight="1" s="78"/>
+    <row r="536" ht="12.75" customHeight="1" s="78"/>
+    <row r="537" ht="12.75" customHeight="1" s="78"/>
+    <row r="538" ht="12.75" customHeight="1" s="78"/>
+    <row r="539" ht="12.75" customHeight="1" s="78"/>
+    <row r="540" ht="12.75" customHeight="1" s="78"/>
+    <row r="541" ht="12.75" customHeight="1" s="78"/>
+    <row r="542" ht="12.75" customHeight="1" s="78"/>
+    <row r="543" ht="12.75" customHeight="1" s="78"/>
+    <row r="544" ht="12.75" customHeight="1" s="78"/>
+    <row r="545" ht="12.75" customHeight="1" s="78"/>
+    <row r="546" ht="12.75" customHeight="1" s="78"/>
+    <row r="547" ht="12.75" customHeight="1" s="78"/>
+    <row r="548" ht="12.75" customHeight="1" s="78"/>
+    <row r="549" ht="12.75" customHeight="1" s="78"/>
+    <row r="550" ht="12.75" customHeight="1" s="78"/>
+    <row r="551" ht="12.75" customHeight="1" s="78"/>
+    <row r="552" ht="12.75" customHeight="1" s="78"/>
+    <row r="553" ht="12.75" customHeight="1" s="78"/>
+    <row r="554" ht="12.75" customHeight="1" s="78"/>
+    <row r="555" ht="12.75" customHeight="1" s="78"/>
+    <row r="556" ht="12.75" customHeight="1" s="78"/>
+    <row r="557" ht="12.75" customHeight="1" s="78"/>
+    <row r="558" ht="12.75" customHeight="1" s="78"/>
+    <row r="559" ht="12.75" customHeight="1" s="78"/>
+    <row r="560" ht="12.75" customHeight="1" s="78"/>
+    <row r="561" ht="12.75" customHeight="1" s="78"/>
+    <row r="562" ht="12.75" customHeight="1" s="78"/>
+    <row r="563" ht="12.75" customHeight="1" s="78"/>
+    <row r="564" ht="12.75" customHeight="1" s="78"/>
+    <row r="565" ht="12.75" customHeight="1" s="78"/>
+    <row r="566" ht="12.75" customHeight="1" s="78"/>
+    <row r="567" ht="12.75" customHeight="1" s="78"/>
+    <row r="568" ht="12.75" customHeight="1" s="78"/>
+    <row r="569" ht="12.75" customHeight="1" s="78"/>
+    <row r="570" ht="12.75" customHeight="1" s="78"/>
+    <row r="571" ht="12.75" customHeight="1" s="78"/>
+    <row r="572" ht="12.75" customHeight="1" s="78"/>
+    <row r="573" ht="12.75" customHeight="1" s="78"/>
+    <row r="574" ht="12.75" customHeight="1" s="78"/>
+    <row r="575" ht="12.75" customHeight="1" s="78"/>
+    <row r="576" ht="12.75" customHeight="1" s="78"/>
+    <row r="577" ht="12.75" customHeight="1" s="78"/>
+    <row r="578" ht="12.75" customHeight="1" s="78"/>
+    <row r="579" ht="12.75" customHeight="1" s="78"/>
+    <row r="580" ht="12.75" customHeight="1" s="78"/>
+    <row r="581" ht="12.75" customHeight="1" s="78"/>
+    <row r="582" ht="12.75" customHeight="1" s="78"/>
+    <row r="583" ht="12.75" customHeight="1" s="78"/>
+    <row r="584" ht="12.75" customHeight="1" s="78"/>
+    <row r="585" ht="12.75" customHeight="1" s="78"/>
+    <row r="586" ht="12.75" customHeight="1" s="78"/>
+    <row r="587" ht="12.75" customHeight="1" s="78"/>
+    <row r="588" ht="12.75" customHeight="1" s="78"/>
+    <row r="589" ht="12.75" customHeight="1" s="78"/>
+    <row r="590" ht="12.75" customHeight="1" s="78"/>
+    <row r="591" ht="12.75" customHeight="1" s="78"/>
+    <row r="592" ht="12.75" customHeight="1" s="78"/>
+    <row r="593" ht="12.75" customHeight="1" s="78"/>
+    <row r="594" ht="12.75" customHeight="1" s="78"/>
+    <row r="595" ht="12.75" customHeight="1" s="78"/>
+    <row r="596" ht="12.75" customHeight="1" s="78"/>
+    <row r="597" ht="12.75" customHeight="1" s="78"/>
+    <row r="598" ht="12.75" customHeight="1" s="78"/>
+    <row r="599" ht="12.75" customHeight="1" s="78"/>
+    <row r="600" ht="12.75" customHeight="1" s="78"/>
+    <row r="601" ht="12.75" customHeight="1" s="78"/>
+    <row r="602" ht="12.75" customHeight="1" s="78"/>
+    <row r="603" ht="12.75" customHeight="1" s="78"/>
+    <row r="604" ht="12.75" customHeight="1" s="78"/>
+    <row r="605" ht="12.75" customHeight="1" s="78"/>
+    <row r="606" ht="12.75" customHeight="1" s="78"/>
+    <row r="607" ht="12.75" customHeight="1" s="78"/>
+    <row r="608" ht="12.75" customHeight="1" s="78"/>
+    <row r="609" ht="12.75" customHeight="1" s="78"/>
+    <row r="610" ht="12.75" customHeight="1" s="78"/>
+    <row r="611" ht="12.75" customHeight="1" s="78"/>
+    <row r="612" ht="12.75" customHeight="1" s="78"/>
+    <row r="613" ht="12.75" customHeight="1" s="78"/>
+    <row r="614" ht="12.75" customHeight="1" s="78"/>
+    <row r="615" ht="12.75" customHeight="1" s="78"/>
+    <row r="616" ht="12.75" customHeight="1" s="78"/>
+    <row r="617" ht="12.75" customHeight="1" s="78"/>
+    <row r="618" ht="12.75" customHeight="1" s="78"/>
+    <row r="619" ht="12.75" customHeight="1" s="78"/>
+    <row r="620" ht="12.75" customHeight="1" s="78"/>
+    <row r="621" ht="12.75" customHeight="1" s="78"/>
+    <row r="622" ht="12.75" customHeight="1" s="78"/>
+    <row r="623" ht="12.75" customHeight="1" s="78"/>
+    <row r="624" ht="12.75" customHeight="1" s="78"/>
+    <row r="625" ht="12.75" customHeight="1" s="78"/>
+    <row r="626" ht="12.75" customHeight="1" s="78"/>
+    <row r="627" ht="12.75" customHeight="1" s="78"/>
+    <row r="628" ht="12.75" customHeight="1" s="78"/>
+    <row r="629" ht="12.75" customHeight="1" s="78"/>
+    <row r="630" ht="12.75" customHeight="1" s="78"/>
+    <row r="631" ht="12.75" customHeight="1" s="78"/>
+    <row r="632" ht="12.75" customHeight="1" s="78"/>
+    <row r="633" ht="12.75" customHeight="1" s="78"/>
+    <row r="634" ht="12.75" customHeight="1" s="78"/>
+    <row r="635" ht="12.75" customHeight="1" s="78"/>
+    <row r="636" ht="12.75" customHeight="1" s="78"/>
+    <row r="637" ht="12.75" customHeight="1" s="78"/>
+    <row r="638" ht="12.75" customHeight="1" s="78"/>
+    <row r="639" ht="12.75" customHeight="1" s="78"/>
+    <row r="640" ht="12.75" customHeight="1" s="78"/>
+    <row r="641" ht="12.75" customHeight="1" s="78"/>
+    <row r="642" ht="12.75" customHeight="1" s="78"/>
+    <row r="643" ht="12.75" customHeight="1" s="78"/>
+    <row r="644" ht="12.75" customHeight="1" s="78"/>
+    <row r="645" ht="12.75" customHeight="1" s="78"/>
+    <row r="646" ht="12.75" customHeight="1" s="78"/>
+    <row r="647" ht="12.75" customHeight="1" s="78"/>
+    <row r="648" ht="12.75" customHeight="1" s="78"/>
+    <row r="649" ht="12.75" customHeight="1" s="78"/>
+    <row r="650" ht="12.75" customHeight="1" s="78"/>
+    <row r="651" ht="12.75" customHeight="1" s="78"/>
+    <row r="652" ht="12.75" customHeight="1" s="78"/>
+    <row r="653" ht="12.75" customHeight="1" s="78"/>
+    <row r="654" ht="12.75" customHeight="1" s="78"/>
+    <row r="655" ht="12.75" customHeight="1" s="78"/>
+    <row r="656" ht="12.75" customHeight="1" s="78"/>
+    <row r="657" ht="12.75" customHeight="1" s="78"/>
+    <row r="658" ht="12.75" customHeight="1" s="78"/>
+    <row r="659" ht="12.75" customHeight="1" s="78"/>
+    <row r="660" ht="12.75" customHeight="1" s="78"/>
+    <row r="661" ht="12.75" customHeight="1" s="78"/>
+    <row r="662" ht="12.75" customHeight="1" s="78"/>
+    <row r="663" ht="12.75" customHeight="1" s="78"/>
+    <row r="664" ht="12.75" customHeight="1" s="78"/>
+    <row r="665" ht="12.75" customHeight="1" s="78"/>
+    <row r="666" ht="12.75" customHeight="1" s="78"/>
+    <row r="667" ht="12.75" customHeight="1" s="78"/>
+    <row r="668" ht="12.75" customHeight="1" s="78"/>
+    <row r="669" ht="12.75" customHeight="1" s="78"/>
+    <row r="670" ht="12.75" customHeight="1" s="78"/>
+    <row r="671" ht="12.75" customHeight="1" s="78"/>
+    <row r="672" ht="12.75" customHeight="1" s="78"/>
+    <row r="673" ht="12.75" customHeight="1" s="78"/>
+    <row r="674" ht="12.75" customHeight="1" s="78"/>
+    <row r="675" ht="12.75" customHeight="1" s="78"/>
+    <row r="676" ht="12.75" customHeight="1" s="78"/>
+    <row r="677" ht="12.75" customHeight="1" s="78"/>
+    <row r="678" ht="12.75" customHeight="1" s="78"/>
+    <row r="679" ht="12.75" customHeight="1" s="78"/>
+    <row r="680" ht="12.75" customHeight="1" s="78"/>
+    <row r="681" ht="12.75" customHeight="1" s="78"/>
+    <row r="682" ht="12.75" customHeight="1" s="78"/>
+    <row r="683" ht="12.75" customHeight="1" s="78"/>
+    <row r="684" ht="12.75" customHeight="1" s="78"/>
+    <row r="685" ht="12.75" customHeight="1" s="78"/>
+    <row r="686" ht="12.75" customHeight="1" s="78"/>
+    <row r="687" ht="12.75" customHeight="1" s="78"/>
+    <row r="688" ht="12.75" customHeight="1" s="78"/>
+    <row r="689" ht="12.75" customHeight="1" s="78"/>
+    <row r="690" ht="12.75" customHeight="1" s="78"/>
+    <row r="691" ht="12.75" customHeight="1" s="78"/>
+    <row r="692" ht="12.75" customHeight="1" s="78"/>
+    <row r="693" ht="12.75" customHeight="1" s="78"/>
+    <row r="694" ht="12.75" customHeight="1" s="78"/>
+    <row r="695" ht="12.75" customHeight="1" s="78"/>
+    <row r="696" ht="12.75" customHeight="1" s="78"/>
+    <row r="697" ht="12.75" customHeight="1" s="78"/>
+    <row r="698" ht="12.75" customHeight="1" s="78"/>
+    <row r="699" ht="12.75" customHeight="1" s="78"/>
+    <row r="700" ht="12.75" customHeight="1" s="78"/>
+    <row r="701" ht="12.75" customHeight="1" s="78"/>
+    <row r="702" ht="12.75" customHeight="1" s="78"/>
+    <row r="703" ht="12.75" customHeight="1" s="78"/>
+    <row r="704" ht="12.75" customHeight="1" s="78"/>
+    <row r="705" ht="12.75" customHeight="1" s="78"/>
+    <row r="706" ht="12.75" customHeight="1" s="78"/>
+    <row r="707" ht="12.75" customHeight="1" s="78"/>
+    <row r="708" ht="12.75" customHeight="1" s="78"/>
+    <row r="709" ht="12.75" customHeight="1" s="78"/>
+    <row r="710" ht="12.75" customHeight="1" s="78"/>
+    <row r="711" ht="12.75" customHeight="1" s="78"/>
+    <row r="712" ht="12.75" customHeight="1" s="78"/>
+    <row r="713" ht="12.75" customHeight="1" s="78"/>
+    <row r="714" ht="12.75" customHeight="1" s="78"/>
+    <row r="715" ht="12.75" customHeight="1" s="78"/>
+    <row r="716" ht="12.75" customHeight="1" s="78"/>
+    <row r="717" ht="12.75" customHeight="1" s="78"/>
+    <row r="718" ht="12.75" customHeight="1" s="78"/>
+    <row r="719" ht="12.75" customHeight="1" s="78"/>
+    <row r="720" ht="12.75" customHeight="1" s="78"/>
+    <row r="721" ht="12.75" customHeight="1" s="78"/>
+    <row r="722" ht="12.75" customHeight="1" s="78"/>
+    <row r="723" ht="12.75" customHeight="1" s="78"/>
+    <row r="724" ht="12.75" customHeight="1" s="78"/>
+    <row r="725" ht="12.75" customHeight="1" s="78"/>
+    <row r="726" ht="12.75" customHeight="1" s="78"/>
+    <row r="727" ht="12.75" customHeight="1" s="78"/>
+    <row r="728" ht="12.75" customHeight="1" s="78"/>
+    <row r="729" ht="12.75" customHeight="1" s="78"/>
+    <row r="730" ht="12.75" customHeight="1" s="78"/>
+    <row r="731" ht="12.75" customHeight="1" s="78"/>
+    <row r="732" ht="12.75" customHeight="1" s="78"/>
+    <row r="733" ht="12.75" customHeight="1" s="78"/>
+    <row r="734" ht="12.75" customHeight="1" s="78"/>
+    <row r="735" ht="12.75" customHeight="1" s="78"/>
+    <row r="736" ht="12.75" customHeight="1" s="78"/>
+    <row r="737" ht="12.75" customHeight="1" s="78"/>
+    <row r="738" ht="12.75" customHeight="1" s="78"/>
+    <row r="739" ht="12.75" customHeight="1" s="78"/>
+    <row r="740" ht="12.75" customHeight="1" s="78"/>
+    <row r="741" ht="12.75" customHeight="1" s="78"/>
+    <row r="742" ht="12.75" customHeight="1" s="78"/>
+    <row r="743" ht="12.75" customHeight="1" s="78"/>
+    <row r="744" ht="12.75" customHeight="1" s="78"/>
+    <row r="745" ht="12.75" customHeight="1" s="78"/>
+    <row r="746" ht="12.75" customHeight="1" s="78"/>
+    <row r="747" ht="12.75" customHeight="1" s="78"/>
+    <row r="748" ht="12.75" customHeight="1" s="78"/>
+    <row r="749" ht="12.75" customHeight="1" s="78"/>
+    <row r="750" ht="12.75" customHeight="1" s="78"/>
+    <row r="751" ht="12.75" customHeight="1" s="78"/>
+    <row r="752" ht="12.75" customHeight="1" s="78"/>
+    <row r="753" ht="12.75" customHeight="1" s="78"/>
+    <row r="754" ht="12.75" customHeight="1" s="78"/>
+    <row r="755" ht="12.75" customHeight="1" s="78"/>
+    <row r="756" ht="12.75" customHeight="1" s="78"/>
+    <row r="757" ht="12.75" customHeight="1" s="78"/>
+    <row r="758" ht="12.75" customHeight="1" s="78"/>
+    <row r="759" ht="12.75" customHeight="1" s="78"/>
+    <row r="760" ht="12.75" customHeight="1" s="78"/>
+    <row r="761" ht="12.75" customHeight="1" s="78"/>
+    <row r="762" ht="12.75" customHeight="1" s="78"/>
+    <row r="763" ht="12.75" customHeight="1" s="78"/>
+    <row r="764" ht="12.75" customHeight="1" s="78"/>
+    <row r="765" ht="12.75" customHeight="1" s="78"/>
+    <row r="766" ht="12.75" customHeight="1" s="78"/>
+    <row r="767" ht="12.75" customHeight="1" s="78"/>
+    <row r="768" ht="12.75" customHeight="1" s="78"/>
+    <row r="769" ht="12.75" customHeight="1" s="78"/>
+    <row r="770" ht="12.75" customHeight="1" s="78"/>
+    <row r="771" ht="12.75" customHeight="1" s="78"/>
+    <row r="772" ht="12.75" customHeight="1" s="78"/>
+    <row r="773" ht="12.75" customHeight="1" s="78"/>
+    <row r="774" ht="12.75" customHeight="1" s="78"/>
+    <row r="775" ht="12.75" customHeight="1" s="78"/>
+    <row r="776" ht="12.75" customHeight="1" s="78"/>
+    <row r="777" ht="12.75" customHeight="1" s="78"/>
+    <row r="778" ht="12.75" customHeight="1" s="78"/>
+    <row r="779" ht="12.75" customHeight="1" s="78"/>
+    <row r="780" ht="12.75" customHeight="1" s="78"/>
+    <row r="781" ht="12.75" customHeight="1" s="78"/>
+    <row r="782" ht="12.75" customHeight="1" s="78"/>
+    <row r="783" ht="12.75" customHeight="1" s="78"/>
+    <row r="784" ht="12.75" customHeight="1" s="78"/>
+    <row r="785" ht="12.75" customHeight="1" s="78"/>
+    <row r="786" ht="12.75" customHeight="1" s="78"/>
+    <row r="787" ht="12.75" customHeight="1" s="78"/>
+    <row r="788" ht="12.75" customHeight="1" s="78"/>
+    <row r="789" ht="12.75" customHeight="1" s="78"/>
+    <row r="790" ht="12.75" customHeight="1" s="78"/>
+    <row r="791" ht="12.75" customHeight="1" s="78"/>
+    <row r="792" ht="12.75" customHeight="1" s="78"/>
+    <row r="793" ht="12.75" customHeight="1" s="78"/>
+    <row r="794" ht="12.75" customHeight="1" s="78"/>
+    <row r="795" ht="12.75" customHeight="1" s="78"/>
+    <row r="796" ht="12.75" customHeight="1" s="78"/>
+    <row r="797" ht="12.75" customHeight="1" s="78"/>
+    <row r="798" ht="12.75" customHeight="1" s="78"/>
+    <row r="799" ht="12.75" customHeight="1" s="78"/>
+    <row r="800" ht="12.75" customHeight="1" s="78"/>
+    <row r="801" ht="12.75" customHeight="1" s="78"/>
+    <row r="802" ht="12.75" customHeight="1" s="78"/>
+    <row r="803" ht="12.75" customHeight="1" s="78"/>
+    <row r="804" ht="12.75" customHeight="1" s="78"/>
+    <row r="805" ht="12.75" customHeight="1" s="78"/>
+    <row r="806" ht="12.75" customHeight="1" s="78"/>
+    <row r="807" ht="12.75" customHeight="1" s="78"/>
+    <row r="808" ht="12.75" customHeight="1" s="78"/>
+    <row r="809" ht="12.75" customHeight="1" s="78"/>
+    <row r="810" ht="12.75" customHeight="1" s="78"/>
+    <row r="811" ht="12.75" customHeight="1" s="78"/>
+    <row r="812" ht="12.75" customHeight="1" s="78"/>
+    <row r="813" ht="12.75" customHeight="1" s="78"/>
+    <row r="814" ht="12.75" customHeight="1" s="78"/>
+    <row r="815" ht="12.75" customHeight="1" s="78"/>
+    <row r="816" ht="12.75" customHeight="1" s="78"/>
+    <row r="817" ht="12.75" customHeight="1" s="78"/>
+    <row r="818" ht="12.75" customHeight="1" s="78"/>
+    <row r="819" ht="12.75" customHeight="1" s="78"/>
+    <row r="820" ht="12.75" customHeight="1" s="78"/>
+    <row r="821" ht="12.75" customHeight="1" s="78"/>
+    <row r="822" ht="12.75" customHeight="1" s="78"/>
+    <row r="823" ht="12.75" customHeight="1" s="78"/>
+    <row r="824" ht="12.75" customHeight="1" s="78"/>
+    <row r="825" ht="12.75" customHeight="1" s="78"/>
+    <row r="826" ht="12.75" customHeight="1" s="78"/>
+    <row r="827" ht="12.75" customHeight="1" s="78"/>
+    <row r="828" ht="12.75" customHeight="1" s="78"/>
+    <row r="829" ht="12.75" customHeight="1" s="78"/>
+    <row r="830" ht="12.75" customHeight="1" s="78"/>
+    <row r="831" ht="12.75" customHeight="1" s="78"/>
+    <row r="832" ht="12.75" customHeight="1" s="78"/>
+    <row r="833" ht="12.75" customHeight="1" s="78"/>
+    <row r="834" ht="12.75" customHeight="1" s="78"/>
+    <row r="835" ht="12.75" customHeight="1" s="78"/>
+    <row r="836" ht="12.75" customHeight="1" s="78"/>
+    <row r="837" ht="12.75" customHeight="1" s="78"/>
+    <row r="838" ht="12.75" customHeight="1" s="78"/>
+    <row r="839" ht="12.75" customHeight="1" s="78"/>
+    <row r="840" ht="12.75" customHeight="1" s="78"/>
+    <row r="841" ht="12.75" customHeight="1" s="78"/>
+    <row r="842" ht="12.75" customHeight="1" s="78"/>
+    <row r="843" ht="12.75" customHeight="1" s="78"/>
+    <row r="844" ht="12.75" customHeight="1" s="78"/>
+    <row r="845" ht="12.75" customHeight="1" s="78"/>
+    <row r="846" ht="12.75" customHeight="1" s="78"/>
+    <row r="847" ht="12.75" customHeight="1" s="78"/>
+    <row r="848" ht="12.75" customHeight="1" s="78"/>
+    <row r="849" ht="12.75" customHeight="1" s="78"/>
+    <row r="850" ht="12.75" customHeight="1" s="78"/>
+    <row r="851" ht="12.75" customHeight="1" s="78"/>
+    <row r="852" ht="12.75" customHeight="1" s="78"/>
+    <row r="853" ht="12.75" customHeight="1" s="78"/>
+    <row r="854" ht="12.75" customHeight="1" s="78"/>
+    <row r="855" ht="12.75" customHeight="1" s="78"/>
+    <row r="856" ht="12.75" customHeight="1" s="78"/>
+    <row r="857" ht="12.75" customHeight="1" s="78"/>
+    <row r="858" ht="12.75" customHeight="1" s="78"/>
+    <row r="859" ht="12.75" customHeight="1" s="78"/>
+    <row r="860" ht="12.75" customHeight="1" s="78"/>
+    <row r="861" ht="12.75" customHeight="1" s="78"/>
+    <row r="862" ht="12.75" customHeight="1" s="78"/>
+    <row r="863" ht="12.75" customHeight="1" s="78"/>
+    <row r="864" ht="12.75" customHeight="1" s="78"/>
+    <row r="865" ht="12.75" customHeight="1" s="78"/>
+    <row r="866" ht="12.75" customHeight="1" s="78"/>
+    <row r="867" ht="12.75" customHeight="1" s="78"/>
+    <row r="868" ht="12.75" customHeight="1" s="78"/>
+    <row r="869" ht="12.75" customHeight="1" s="78"/>
+    <row r="870" ht="12.75" customHeight="1" s="78"/>
+    <row r="871" ht="12.75" customHeight="1" s="78"/>
+    <row r="872" ht="12.75" customHeight="1" s="78"/>
+    <row r="873" ht="12.75" customHeight="1" s="78"/>
+    <row r="874" ht="12.75" customHeight="1" s="78"/>
+    <row r="875" ht="12.75" customHeight="1" s="78"/>
+    <row r="876" ht="12.75" customHeight="1" s="78"/>
+    <row r="877" ht="12.75" customHeight="1" s="78"/>
+    <row r="878" ht="12.75" customHeight="1" s="78"/>
+    <row r="879" ht="12.75" customHeight="1" s="78"/>
+    <row r="880" ht="12.75" customHeight="1" s="78"/>
+    <row r="881" ht="12.75" customHeight="1" s="78"/>
+    <row r="882" ht="12.75" customHeight="1" s="78"/>
+    <row r="883" ht="12.75" customHeight="1" s="78"/>
+    <row r="884" ht="12.75" customHeight="1" s="78"/>
+    <row r="885" ht="12.75" customHeight="1" s="78"/>
+    <row r="886" ht="12.75" customHeight="1" s="78"/>
+    <row r="887" ht="12.75" customHeight="1" s="78"/>
+    <row r="888" ht="12.75" customHeight="1" s="78"/>
+    <row r="889" ht="12.75" customHeight="1" s="78"/>
+    <row r="890" ht="12.75" customHeight="1" s="78"/>
+    <row r="891" ht="12.75" customHeight="1" s="78"/>
+    <row r="892" ht="12.75" customHeight="1" s="78"/>
+    <row r="893" ht="12.75" customHeight="1" s="78"/>
+    <row r="894" ht="12.75" customHeight="1" s="78"/>
+    <row r="895" ht="12.75" customHeight="1" s="78"/>
+    <row r="896" ht="12.75" customHeight="1" s="78"/>
+    <row r="897" ht="12.75" customHeight="1" s="78"/>
+    <row r="898" ht="12.75" customHeight="1" s="78"/>
+    <row r="899" ht="12.75" customHeight="1" s="78"/>
+    <row r="900" ht="12.75" customHeight="1" s="78"/>
+    <row r="901" ht="12.75" customHeight="1" s="78"/>
+    <row r="902" ht="12.75" customHeight="1" s="78"/>
+    <row r="903" ht="12.75" customHeight="1" s="78"/>
+    <row r="904" ht="12.75" customHeight="1" s="78"/>
+    <row r="905" ht="12.75" customHeight="1" s="78"/>
+    <row r="906" ht="12.75" customHeight="1" s="78"/>
+    <row r="907" ht="12.75" customHeight="1" s="78"/>
+    <row r="908" ht="12.75" customHeight="1" s="78"/>
+    <row r="909" ht="12.75" customHeight="1" s="78"/>
+    <row r="910" ht="12.75" customHeight="1" s="78"/>
+    <row r="911" ht="12.75" customHeight="1" s="78"/>
+    <row r="912" ht="12.75" customHeight="1" s="78"/>
+    <row r="913" ht="12.75" customHeight="1" s="78"/>
+    <row r="914" ht="12.75" customHeight="1" s="78"/>
+    <row r="915" ht="12.75" customHeight="1" s="78"/>
+    <row r="916" ht="12.75" customHeight="1" s="78"/>
+    <row r="917" ht="12.75" customHeight="1" s="78"/>
+    <row r="918" ht="12.75" customHeight="1" s="78"/>
+    <row r="919" ht="12.75" customHeight="1" s="78"/>
+    <row r="920" ht="12.75" customHeight="1" s="78"/>
+    <row r="921" ht="12.75" customHeight="1" s="78"/>
+    <row r="922" ht="12.75" customHeight="1" s="78"/>
+    <row r="923" ht="12.75" customHeight="1" s="78"/>
+    <row r="924" ht="12.75" customHeight="1" s="78"/>
+    <row r="925" ht="12.75" customHeight="1" s="78"/>
+    <row r="926" ht="12.75" customHeight="1" s="78"/>
+    <row r="927" ht="12.75" customHeight="1" s="78"/>
+    <row r="928" ht="12.75" customHeight="1" s="78"/>
+    <row r="929" ht="12.75" customHeight="1" s="78"/>
+    <row r="930" ht="12.75" customHeight="1" s="78"/>
+    <row r="931" ht="12.75" customHeight="1" s="78"/>
+    <row r="932" ht="12.75" customHeight="1" s="78"/>
+    <row r="933" ht="12.75" customHeight="1" s="78"/>
+    <row r="934" ht="12.75" customHeight="1" s="78"/>
+    <row r="935" ht="12.75" customHeight="1" s="78"/>
+    <row r="936" ht="12.75" customHeight="1" s="78"/>
+    <row r="937" ht="12.75" customHeight="1" s="78"/>
+    <row r="938" ht="12.75" customHeight="1" s="78"/>
+    <row r="939" ht="12.75" customHeight="1" s="78"/>
+    <row r="940" ht="12.75" customHeight="1" s="78"/>
+    <row r="941" ht="12.75" customHeight="1" s="78"/>
+    <row r="942" ht="12.75" customHeight="1" s="78"/>
+    <row r="943" ht="12.75" customHeight="1" s="78"/>
+    <row r="944" ht="12.75" customHeight="1" s="78"/>
+    <row r="945" ht="12.75" customHeight="1" s="78"/>
+    <row r="946" ht="12.75" customHeight="1" s="78"/>
+    <row r="947" ht="12.75" customHeight="1" s="78"/>
+    <row r="948" ht="12.75" customHeight="1" s="78"/>
+    <row r="949" ht="12.75" customHeight="1" s="78"/>
+    <row r="950" ht="12.75" customHeight="1" s="78"/>
+    <row r="951" ht="12.75" customHeight="1" s="78"/>
+    <row r="952" ht="12.75" customHeight="1" s="78"/>
+    <row r="953" ht="12.75" customHeight="1" s="78"/>
+    <row r="954" ht="12.75" customHeight="1" s="78"/>
+    <row r="955" ht="12.75" customHeight="1" s="78"/>
+    <row r="956" ht="12.75" customHeight="1" s="78"/>
+    <row r="957" ht="12.75" customHeight="1" s="78"/>
+    <row r="958" ht="12.75" customHeight="1" s="78"/>
+    <row r="959" ht="12.75" customHeight="1" s="78"/>
+    <row r="960" ht="12.75" customHeight="1" s="78"/>
+    <row r="961" ht="12.75" customHeight="1" s="78"/>
+    <row r="962" ht="12.75" customHeight="1" s="78"/>
+    <row r="963" ht="12.75" customHeight="1" s="78"/>
+    <row r="964" ht="12.75" customHeight="1" s="78"/>
+    <row r="965" ht="12.75" customHeight="1" s="78"/>
+    <row r="966" ht="12.75" customHeight="1" s="78"/>
+    <row r="967" ht="12.75" customHeight="1" s="78"/>
+    <row r="968" ht="12.75" customHeight="1" s="78"/>
+    <row r="969" ht="12.75" customHeight="1" s="78"/>
+    <row r="970" ht="12.75" customHeight="1" s="78"/>
+    <row r="971" ht="12.75" customHeight="1" s="78"/>
+    <row r="972" ht="12.75" customHeight="1" s="78"/>
+    <row r="973" ht="12.75" customHeight="1" s="78"/>
+    <row r="974" ht="12.75" customHeight="1" s="78"/>
+    <row r="975" ht="12.75" customHeight="1" s="78"/>
+    <row r="976" ht="12.75" customHeight="1" s="78"/>
+    <row r="977" ht="12.75" customHeight="1" s="78"/>
+    <row r="978" ht="12.75" customHeight="1" s="78"/>
+    <row r="979" ht="12.75" customHeight="1" s="78"/>
+    <row r="980" ht="12.75" customHeight="1" s="78"/>
+    <row r="981" ht="12.75" customHeight="1" s="78"/>
+    <row r="982" ht="12.75" customHeight="1" s="78"/>
+    <row r="983" ht="12.75" customHeight="1" s="78"/>
+    <row r="984" ht="12.75" customHeight="1" s="78"/>
+    <row r="985" ht="12.75" customHeight="1" s="78"/>
+    <row r="986" ht="12.75" customHeight="1" s="78"/>
+    <row r="987" ht="12.75" customHeight="1" s="78"/>
+    <row r="988" ht="12.75" customHeight="1" s="78"/>
+    <row r="989" ht="12.75" customHeight="1" s="78"/>
+    <row r="990" ht="12.75" customHeight="1" s="78"/>
+    <row r="991" ht="12.75" customHeight="1" s="78"/>
+    <row r="992" ht="12.75" customHeight="1" s="78"/>
+    <row r="993" ht="12.75" customHeight="1" s="78"/>
+    <row r="994" ht="12.75" customHeight="1" s="78"/>
+    <row r="995" ht="12.75" customHeight="1" s="78"/>
+    <row r="996" ht="12.75" customHeight="1" s="78"/>
+    <row r="997" ht="12.75" customHeight="1" s="78"/>
+    <row r="998" ht="12.75" customHeight="1" s="78"/>
+    <row r="999" ht="12.75" customHeight="1" s="78"/>
+    <row r="1000" ht="12.75" customHeight="1" s="78"/>
   </sheetData>
   <mergeCells count="68">
     <mergeCell ref="V34:X34"/>
     <mergeCell ref="AT17:AU17"/>
     <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="Y32:AU32"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="V28:X28"/>
     <mergeCell ref="AB8:AE8"/>
     <mergeCell ref="AT13:AU13"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="AT25:AU25"/>
     <mergeCell ref="S34:T35"/>
     <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B34:F35"/>
     <mergeCell ref="D27:J28"/>
     <mergeCell ref="S37:T38"/>
     <mergeCell ref="V31:X31"/>
-    <mergeCell ref="B34:F35"/>
     <mergeCell ref="Y26:AD26"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="AI4:AN4"/>
@@ -5210,12 +5092,13 @@
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="N37:Q38"/>
+    <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="B6:N6"/>
-    <mergeCell ref="AB10:AE10"/>
     <mergeCell ref="AT18:AU18"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="Y32:AU32"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AT24:AU24"/>
     <mergeCell ref="V32:X32"/>
@@ -5233,26 +5116,26 @@
     <mergeCell ref="Y29:AU29"/>
     <mergeCell ref="D30:R30"/>
     <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="AB11:AE11"/>
     <mergeCell ref="M28:T28"/>
     <mergeCell ref="Y31:AU31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="AT15:AU15"/>
     <mergeCell ref="Y34:AU34"/>
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="A27:C28"/>
     <mergeCell ref="B10:X10"/>
+    <mergeCell ref="V33:X33"/>
     <mergeCell ref="M34:Q35"/>
-    <mergeCell ref="V33:X33"/>
     <mergeCell ref="Y28:AU28"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AT26:AU26"/>
     <mergeCell ref="AT21:AU21"/>
     <mergeCell ref="B8:N8"/>
-    <mergeCell ref="V29:X29"/>
     <mergeCell ref="M2:AC3"/>
     <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="V29:X29"/>
     <mergeCell ref="Y33:AU33"/>
   </mergeCells>
   <conditionalFormatting sqref="H35:I35">
@@ -5275,7 +5158,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:AF14 B15:N15 B16:E25 F16:F18 F20:F25 G16:O25 P15:U25 V15:V18 V20:V25 W15:Z25 AA16:AA25 AB15:AF25">
+  <conditionalFormatting sqref="B14:AF14 B15:E23 B24:AF25 F15:F18 F20:F23 G15:N23 O16:O23 P15:U23 V15:V18 V20:V23 W15:Z23 AA16:AA23 AB15:AF23">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>"T"</formula>
     </cfRule>
